--- a/raw_data/20200818_saline/20200818_Sensor2_Test_60.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_60.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B72B5BD-5E2F-428A-92AA-7166E4178E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>53475.084482</v>
+        <v>53475.084481999998</v>
       </c>
       <c r="B2" s="1">
-        <v>14.854190</v>
+        <v>14.854189999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1241.730000</v>
+        <v>1241.73</v>
       </c>
       <c r="D2" s="1">
-        <v>-302.041000</v>
+        <v>-302.041</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>53485.821409</v>
+        <v>53485.821408999996</v>
       </c>
       <c r="G2" s="1">
         <v>14.857173</v>
       </c>
       <c r="H2" s="1">
-        <v>1265.550000</v>
+        <v>1265.55</v>
       </c>
       <c r="I2" s="1">
-        <v>-262.267000</v>
+        <v>-262.267</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>53496.280519</v>
@@ -511,73 +927,73 @@
         <v>14.860078</v>
       </c>
       <c r="M2" s="1">
-        <v>1301.030000</v>
+        <v>1301.03</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.598000</v>
+        <v>-200.59800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>53506.754538</v>
+        <v>53506.754538000001</v>
       </c>
       <c r="Q2" s="1">
         <v>14.862987</v>
       </c>
       <c r="R2" s="1">
-        <v>1312.820000</v>
+        <v>1312.82</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.010000</v>
+        <v>-183.01</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>53517.320314</v>
+        <v>53517.320313999997</v>
       </c>
       <c r="V2" s="1">
-        <v>14.865922</v>
+        <v>14.865921999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1325.700000</v>
+        <v>1325.7</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.213000</v>
+        <v>-170.21299999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>53527.784414</v>
+        <v>53527.784414000002</v>
       </c>
       <c r="AA2" s="1">
         <v>14.868829</v>
       </c>
       <c r="AB2" s="1">
-        <v>1343.390000</v>
+        <v>1343.39</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.026000</v>
+        <v>-168.02600000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>53539.009376</v>
+        <v>53539.009376000002</v>
       </c>
       <c r="AF2" s="1">
         <v>14.871947</v>
       </c>
       <c r="AG2" s="1">
-        <v>1356.310000</v>
+        <v>1356.31</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.830000</v>
+        <v>-177.83</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>53549.462561</v>
@@ -586,165 +1002,165 @@
         <v>14.874851</v>
       </c>
       <c r="AL2" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM2" s="1">
-        <v>-207.709000</v>
+        <v>-207.709</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>53560.211361</v>
+        <v>53560.211361000001</v>
       </c>
       <c r="AP2" s="1">
         <v>14.877836</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1398.750000</v>
+        <v>1398.75</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.288000</v>
+        <v>-251.28800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>53570.813349</v>
+        <v>53570.813348999996</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.880781</v>
+        <v>14.880781000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1423.440000</v>
+        <v>1423.44</v>
       </c>
       <c r="AW2" s="1">
-        <v>-310.849000</v>
+        <v>-310.84899999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>53581.930676</v>
+        <v>53581.930676000004</v>
       </c>
       <c r="AZ2" s="1">
-        <v>14.883870</v>
+        <v>14.88387</v>
       </c>
       <c r="BA2" s="1">
-        <v>1442.860000</v>
+        <v>1442.86</v>
       </c>
       <c r="BB2" s="1">
-        <v>-362.575000</v>
+        <v>-362.57499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>53593.210726</v>
+        <v>53593.210725999998</v>
       </c>
       <c r="BE2" s="1">
         <v>14.887003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.780000</v>
+        <v>1528.78</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.561000</v>
+        <v>-608.56100000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>53604.262589</v>
+        <v>53604.262588999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>14.890073</v>
+        <v>14.890072999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.900000</v>
+        <v>1683.9</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1048.220000</v>
+        <v>-1048.22</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>53615.481562</v>
+        <v>53615.481562000001</v>
       </c>
       <c r="BO2" s="1">
         <v>14.893189</v>
       </c>
       <c r="BP2" s="1">
-        <v>1979.410000</v>
+        <v>1979.41</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1807.900000</v>
+        <v>-1807.9</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>53627.097401</v>
+        <v>53627.097400999999</v>
       </c>
       <c r="BT2" s="1">
         <v>14.896416</v>
       </c>
       <c r="BU2" s="1">
-        <v>2367.390000</v>
+        <v>2367.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2679.940000</v>
+        <v>-2679.94</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>53637.851627</v>
+        <v>53637.851626999996</v>
       </c>
       <c r="BY2" s="1">
         <v>14.899403</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2849.890000</v>
+        <v>2849.89</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3633.380000</v>
+        <v>-3633.38</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>53648.888147</v>
+        <v>53648.888146999998</v>
       </c>
       <c r="CD2" s="1">
         <v>14.902469</v>
       </c>
       <c r="CE2" s="1">
-        <v>4259.100000</v>
+        <v>4259.1000000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5926.730000</v>
+        <v>-5926.73</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>53475.469875</v>
+        <v>53475.469875000003</v>
       </c>
       <c r="B3" s="1">
-        <v>14.854297</v>
+        <v>14.854297000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="D3" s="1">
-        <v>-301.960000</v>
+        <v>-301.95999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>53486.205316</v>
@@ -753,587 +1169,587 @@
         <v>14.857279</v>
       </c>
       <c r="H3" s="1">
-        <v>1265.430000</v>
+        <v>1265.43</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.243000</v>
+        <v>-260.24299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>53496.638661</v>
+        <v>53496.638660999997</v>
       </c>
       <c r="L3" s="1">
         <v>14.860177</v>
       </c>
       <c r="M3" s="1">
-        <v>1300.860000</v>
+        <v>1300.8599999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.622000</v>
+        <v>-200.62200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>53507.140456</v>
+        <v>53507.140456000001</v>
       </c>
       <c r="Q3" s="1">
         <v>14.863095</v>
       </c>
       <c r="R3" s="1">
-        <v>1312.840000</v>
+        <v>1312.84</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.113000</v>
+        <v>-183.113</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>53517.703754</v>
+        <v>53517.703754000002</v>
       </c>
       <c r="V3" s="1">
-        <v>14.866029</v>
+        <v>14.866028999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1325.760000</v>
+        <v>1325.76</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.889000</v>
+        <v>-169.88900000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>53528.518994</v>
+        <v>53528.518993999998</v>
       </c>
       <c r="AA3" s="1">
         <v>14.869033</v>
       </c>
       <c r="AB3" s="1">
-        <v>1343.440000</v>
+        <v>1343.44</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.187000</v>
+        <v>-168.18700000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>53539.384845</v>
       </c>
       <c r="AF3" s="1">
-        <v>14.872051</v>
+        <v>14.872051000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1356.330000</v>
+        <v>1356.33</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.822000</v>
+        <v>-177.822</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>53550.029487</v>
       </c>
       <c r="AK3" s="1">
-        <v>14.875008</v>
+        <v>14.875007999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM3" s="1">
-        <v>-207.645000</v>
+        <v>-207.64500000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>53560.585843</v>
+        <v>53560.585843000001</v>
       </c>
       <c r="AP3" s="1">
         <v>14.877941</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1398.730000</v>
+        <v>1398.73</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.289000</v>
+        <v>-251.28899999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>53571.515188</v>
+        <v>53571.515187999998</v>
       </c>
       <c r="AU3" s="1">
         <v>14.880976</v>
       </c>
       <c r="AV3" s="1">
-        <v>1423.410000</v>
+        <v>1423.41</v>
       </c>
       <c r="AW3" s="1">
-        <v>-310.881000</v>
+        <v>-310.88099999999997</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>53582.597300</v>
+        <v>53582.597300000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>14.884055</v>
       </c>
       <c r="BA3" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB3" s="1">
-        <v>-362.559000</v>
+        <v>-362.55900000000003</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>53593.650149</v>
+        <v>53593.650149000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>14.887125</v>
+        <v>14.887124999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.780000</v>
+        <v>1528.78</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.555000</v>
+        <v>-608.55499999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>53604.742680</v>
+        <v>53604.742680000003</v>
       </c>
       <c r="BJ3" s="1">
-        <v>14.890206</v>
+        <v>14.890205999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1684.110000</v>
+        <v>1684.11</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1048.200000</v>
+        <v>-1048.2</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>53615.922505</v>
+        <v>53615.922505000002</v>
       </c>
       <c r="BO3" s="1">
         <v>14.893312</v>
       </c>
       <c r="BP3" s="1">
-        <v>1979.220000</v>
+        <v>1979.22</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1807.890000</v>
+        <v>-1807.89</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>53627.594362</v>
+        <v>53627.594362000003</v>
       </c>
       <c r="BT3" s="1">
         <v>14.896554</v>
       </c>
       <c r="BU3" s="1">
-        <v>2367.150000</v>
+        <v>2367.15</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2679.820000</v>
+        <v>-2679.82</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>53638.335724</v>
+        <v>53638.335723999997</v>
       </c>
       <c r="BY3" s="1">
         <v>14.899538</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2849.560000</v>
+        <v>2849.56</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3633.890000</v>
+        <v>-3633.89</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>53649.479867</v>
+        <v>53649.479867000002</v>
       </c>
       <c r="CD3" s="1">
         <v>14.902633</v>
       </c>
       <c r="CE3" s="1">
-        <v>4272.320000</v>
+        <v>4272.32</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5909.110000</v>
+        <v>-5909.11</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>53475.818065</v>
+        <v>53475.818064999999</v>
       </c>
       <c r="B4" s="1">
-        <v>14.854394</v>
+        <v>14.854393999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1241.380000</v>
+        <v>1241.3800000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-302.063000</v>
+        <v>-302.06299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>53486.551491</v>
+        <v>53486.551490999998</v>
       </c>
       <c r="G4" s="1">
-        <v>14.857375</v>
+        <v>14.857374999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="I4" s="1">
-        <v>-260.914000</v>
+        <v>-260.91399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>53496.983845</v>
+        <v>53496.983845000002</v>
       </c>
       <c r="L4" s="1">
-        <v>14.860273</v>
+        <v>14.860272999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1300.600000</v>
+        <v>1300.5999999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.656000</v>
+        <v>-200.65600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>53507.835319</v>
+        <v>53507.835318999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.863288</v>
+        <v>14.863288000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1312.740000</v>
+        <v>1312.74</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.157000</v>
+        <v>-183.15700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>53518.390185</v>
+        <v>53518.390184999997</v>
       </c>
       <c r="V4" s="1">
-        <v>14.866219</v>
+        <v>14.866218999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1325.960000</v>
+        <v>1325.96</v>
       </c>
       <c r="X4" s="1">
-        <v>-169.960000</v>
+        <v>-169.96</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>53528.867179</v>
+        <v>53528.867179000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>14.869130</v>
+        <v>14.86913</v>
       </c>
       <c r="AB4" s="1">
-        <v>1343.360000</v>
+        <v>1343.36</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.926000</v>
+        <v>-167.92599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>53539.733038</v>
+        <v>53539.733037999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>14.872148</v>
+        <v>14.872147999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1356.300000</v>
+        <v>1356.3</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.799000</v>
+        <v>-177.79900000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>53550.380687</v>
+        <v>53550.380686999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>14.875106</v>
+        <v>14.875106000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM4" s="1">
-        <v>-207.642000</v>
+        <v>-207.642</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>53561.256432</v>
+        <v>53561.256432000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>14.878127</v>
+        <v>14.878126999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1398.700000</v>
+        <v>1398.7</v>
       </c>
       <c r="AR4" s="1">
-        <v>-251.240000</v>
+        <v>-251.24</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>53571.930375</v>
+        <v>53571.930375000004</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.881092</v>
+        <v>14.881092000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1423.450000</v>
+        <v>1423.45</v>
       </c>
       <c r="AW4" s="1">
-        <v>-310.872000</v>
+        <v>-310.87200000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>53583.017446</v>
+        <v>53583.017445999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.884172</v>
       </c>
       <c r="BA4" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB4" s="1">
-        <v>-362.585000</v>
+        <v>-362.58499999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>53594.013221</v>
+        <v>53594.013221000001</v>
       </c>
       <c r="BE4" s="1">
         <v>14.887226</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.820000</v>
+        <v>1528.82</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.580000</v>
+        <v>-608.58000000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>53605.132070</v>
+        <v>53605.13207</v>
       </c>
       <c r="BJ4" s="1">
         <v>14.890314</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.990000</v>
+        <v>1683.99</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1048.300000</v>
+        <v>-1048.3</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>53616.342616</v>
+        <v>53616.342616000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.893429</v>
+        <v>14.893428999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1979.010000</v>
+        <v>1979.01</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1807.830000</v>
+        <v>-1807.83</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>53628.023928</v>
+        <v>53628.023928000002</v>
       </c>
       <c r="BT4" s="1">
         <v>14.896673</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.810000</v>
+        <v>2366.81</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2679.670000</v>
+        <v>-2679.67</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>53638.784603</v>
       </c>
       <c r="BY4" s="1">
-        <v>14.899662</v>
+        <v>14.899661999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2849.570000</v>
+        <v>2849.57</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3634.180000</v>
+        <v>-3634.18</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>53650.018492</v>
+        <v>53650.018492000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>14.902783</v>
+        <v>14.902782999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4251.710000</v>
+        <v>4251.71</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5917.270000</v>
+        <v>-5917.27</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>53476.158818</v>
+        <v>53476.158818000004</v>
       </c>
       <c r="B5" s="1">
-        <v>14.854489</v>
+        <v>14.854488999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1241.630000</v>
+        <v>1241.6300000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-302.008000</v>
+        <v>-302.00799999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>53487.239970</v>
+        <v>53487.239970000002</v>
       </c>
       <c r="G5" s="1">
         <v>14.857567</v>
       </c>
       <c r="H5" s="1">
-        <v>1266.300000</v>
+        <v>1266.3</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.107000</v>
+        <v>-261.10700000000003</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>53497.672788</v>
+        <v>53497.672788000003</v>
       </c>
       <c r="L5" s="1">
         <v>14.860465</v>
       </c>
       <c r="M5" s="1">
-        <v>1301.010000</v>
+        <v>1301.01</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.289000</v>
+        <v>-200.28899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>53508.185494</v>
+        <v>53508.185493999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.863385</v>
+        <v>14.863384999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1312.790000</v>
+        <v>1312.79</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.145000</v>
+        <v>-183.14500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>53518.735400</v>
+        <v>53518.735399999998</v>
       </c>
       <c r="V5" s="1">
         <v>14.866315</v>
       </c>
       <c r="W5" s="1">
-        <v>1326.050000</v>
+        <v>1326.05</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.814000</v>
+        <v>-169.81399999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>53529.218347</v>
+        <v>53529.218347000002</v>
       </c>
       <c r="AA5" s="1">
         <v>14.869227</v>
       </c>
       <c r="AB5" s="1">
-        <v>1343.190000</v>
+        <v>1343.19</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.873000</v>
+        <v>-167.87299999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>53540.381835</v>
@@ -1342,148 +1758,148 @@
         <v>14.872328</v>
       </c>
       <c r="AG5" s="1">
-        <v>1356.080000</v>
+        <v>1356.08</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.598000</v>
+        <v>-177.59800000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>53551.044799</v>
+        <v>53551.044799000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>14.875290</v>
+        <v>14.87529</v>
       </c>
       <c r="AL5" s="1">
-        <v>1377.000000</v>
+        <v>1377</v>
       </c>
       <c r="AM5" s="1">
-        <v>-207.610000</v>
+        <v>-207.61</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>53561.695888</v>
+        <v>53561.695888000002</v>
       </c>
       <c r="AP5" s="1">
         <v>14.878249</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1398.740000</v>
+        <v>1398.74</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.274000</v>
+        <v>-251.274</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>53572.319201</v>
+        <v>53572.319200999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>14.881200</v>
+        <v>14.8812</v>
       </c>
       <c r="AV5" s="1">
-        <v>1423.390000</v>
+        <v>1423.39</v>
       </c>
       <c r="AW5" s="1">
-        <v>-310.861000</v>
+        <v>-310.86099999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>53583.393907</v>
+        <v>53583.393906999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>14.884276</v>
       </c>
       <c r="BA5" s="1">
-        <v>1442.850000</v>
+        <v>1442.85</v>
       </c>
       <c r="BB5" s="1">
-        <v>-362.587000</v>
+        <v>-362.58699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>53594.375796</v>
       </c>
       <c r="BE5" s="1">
-        <v>14.887327</v>
+        <v>14.887327000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.770000</v>
+        <v>1528.77</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.542000</v>
+        <v>-608.54200000000003</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>53605.554642</v>
+        <v>53605.554642000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>14.890432</v>
+        <v>14.890432000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.840000</v>
+        <v>1683.84</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1048.250000</v>
+        <v>-1048.25</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>53616.772684</v>
+        <v>53616.772684000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.893548</v>
+        <v>14.893547999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1979.010000</v>
+        <v>1979.01</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1808.080000</v>
+        <v>-1808.08</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>53628.436570</v>
+        <v>53628.436569999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>14.896788</v>
+        <v>14.896788000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.680000</v>
+        <v>2366.6799999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2679.790000</v>
+        <v>-2679.79</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>53639.258281</v>
+        <v>53639.258281000002</v>
       </c>
       <c r="BY5" s="1">
         <v>14.899794</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2849.950000</v>
+        <v>2849.95</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3634.870000</v>
+        <v>-3634.87</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>53650.561146</v>
@@ -1492,255 +1908,255 @@
         <v>14.902934</v>
       </c>
       <c r="CE5" s="1">
-        <v>4273.680000</v>
+        <v>4273.68</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5920.160000</v>
+        <v>-5920.16</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>53476.842304</v>
+        <v>53476.842303999998</v>
       </c>
       <c r="B6" s="1">
         <v>14.854678</v>
       </c>
       <c r="C6" s="1">
-        <v>1241.640000</v>
+        <v>1241.6400000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-301.992000</v>
+        <v>-301.99200000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>53487.584207</v>
       </c>
       <c r="G6" s="1">
-        <v>14.857662</v>
+        <v>14.857661999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1265.850000</v>
+        <v>1265.8499999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.022000</v>
+        <v>-261.02199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>53498.019492</v>
+        <v>53498.019491999999</v>
       </c>
       <c r="L6" s="1">
-        <v>14.860561</v>
+        <v>14.860561000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1301.000000</v>
+        <v>1301</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.536000</v>
+        <v>-200.536</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>53508.536198</v>
+        <v>53508.536198000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>14.863482</v>
+        <v>14.863481999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1312.800000</v>
+        <v>1312.8</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.018000</v>
+        <v>-183.018</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>53519.384664</v>
+        <v>53519.384663999997</v>
       </c>
       <c r="V6" s="1">
         <v>14.866496</v>
       </c>
       <c r="W6" s="1">
-        <v>1326.020000</v>
+        <v>1326.02</v>
       </c>
       <c r="X6" s="1">
-        <v>-169.842000</v>
+        <v>-169.84200000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>53529.881035</v>
+        <v>53529.881034999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>14.869411</v>
+        <v>14.869410999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1343.330000</v>
+        <v>1343.33</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.036000</v>
+        <v>-168.036</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>53540.758765</v>
+        <v>53540.758764999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>14.872433</v>
+        <v>14.872432999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1356.440000</v>
+        <v>1356.44</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.804000</v>
+        <v>-177.804</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>53551.426718</v>
+        <v>53551.426718000002</v>
       </c>
       <c r="AK6" s="1">
         <v>14.875396</v>
       </c>
       <c r="AL6" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM6" s="1">
-        <v>-207.623000</v>
+        <v>-207.62299999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>53562.054031</v>
       </c>
       <c r="AP6" s="1">
-        <v>14.878348</v>
+        <v>14.878348000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1398.730000</v>
+        <v>1398.73</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.276000</v>
+        <v>-251.27600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>53572.684295</v>
+        <v>53572.684294999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.881301</v>
+        <v>14.881301000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1423.390000</v>
+        <v>1423.39</v>
       </c>
       <c r="AW6" s="1">
-        <v>-310.854000</v>
+        <v>-310.85399999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>53583.770866</v>
+        <v>53583.770865999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>14.884381</v>
+        <v>14.884380999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1442.850000</v>
+        <v>1442.85</v>
       </c>
       <c r="BB6" s="1">
-        <v>-362.580000</v>
+        <v>-362.58</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>53594.810292</v>
+        <v>53594.810292000002</v>
       </c>
       <c r="BE6" s="1">
         <v>14.887447</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.800000</v>
+        <v>1528.8</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.558000</v>
+        <v>-608.55799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>53605.886949</v>
       </c>
       <c r="BJ6" s="1">
-        <v>14.890524</v>
+        <v>14.890523999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.980000</v>
+        <v>1683.98</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1048.100000</v>
+        <v>-1048.0999999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>53617.162041</v>
+        <v>53617.162041000003</v>
       </c>
       <c r="BO6" s="1">
         <v>14.893656</v>
       </c>
       <c r="BP6" s="1">
-        <v>1979.010000</v>
+        <v>1979.01</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1808.060000</v>
+        <v>-1808.06</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>53628.868118</v>
+        <v>53628.868117999999</v>
       </c>
       <c r="BT6" s="1">
         <v>14.896908</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.580000</v>
+        <v>2366.58</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2679.710000</v>
+        <v>-2679.71</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>53639.689306</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.899914</v>
+        <v>14.899914000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2850.140000</v>
+        <v>2850.14</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3634.190000</v>
+        <v>-3634.19</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>53651.102777</v>
@@ -1749,574 +2165,574 @@
         <v>14.903084</v>
       </c>
       <c r="CE6" s="1">
-        <v>4258.580000</v>
+        <v>4258.58</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5909.170000</v>
+        <v>-5909.17</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>53477.189044</v>
+        <v>53477.189043999999</v>
       </c>
       <c r="B7" s="1">
         <v>14.854775</v>
       </c>
       <c r="C7" s="1">
-        <v>1241.530000</v>
+        <v>1241.53</v>
       </c>
       <c r="D7" s="1">
-        <v>-301.807000</v>
+        <v>-301.80700000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>53487.929873</v>
+        <v>53487.929873000001</v>
       </c>
       <c r="G7" s="1">
         <v>14.857758</v>
       </c>
       <c r="H7" s="1">
-        <v>1266.000000</v>
+        <v>1266</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.157000</v>
+        <v>-261.15699999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>53498.366230</v>
+        <v>53498.36623</v>
       </c>
       <c r="L7" s="1">
         <v>14.860657</v>
       </c>
       <c r="M7" s="1">
-        <v>1300.970000</v>
+        <v>1300.97</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.533000</v>
+        <v>-200.53299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>53509.192901</v>
+        <v>53509.192901000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.863665</v>
+        <v>14.863664999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1312.820000</v>
+        <v>1312.82</v>
       </c>
       <c r="S7" s="1">
-        <v>-182.999000</v>
+        <v>-182.999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>53519.765593</v>
+        <v>53519.765592999996</v>
       </c>
       <c r="V7" s="1">
         <v>14.866602</v>
       </c>
       <c r="W7" s="1">
-        <v>1325.850000</v>
+        <v>1325.85</v>
       </c>
       <c r="X7" s="1">
-        <v>-169.875000</v>
+        <v>-169.875</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>53530.262425</v>
+        <v>53530.262425000001</v>
       </c>
       <c r="AA7" s="1">
         <v>14.869517</v>
       </c>
       <c r="AB7" s="1">
-        <v>1343.320000</v>
+        <v>1343.32</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.041000</v>
+        <v>-168.041</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>53541.106460</v>
+        <v>53541.106460000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>14.872530</v>
+        <v>14.872529999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1356.280000</v>
+        <v>1356.28</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.723000</v>
+        <v>-177.72300000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>53551.771474</v>
+        <v>53551.771474000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.875492</v>
+        <v>14.875491999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1377.010000</v>
+        <v>1377.01</v>
       </c>
       <c r="AM7" s="1">
-        <v>-207.631000</v>
+        <v>-207.631</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>53562.415089</v>
+        <v>53562.415089000002</v>
       </c>
       <c r="AP7" s="1">
         <v>14.878449</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1398.750000</v>
+        <v>1398.75</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.265000</v>
+        <v>-251.26499999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>53573.102385</v>
+        <v>53573.102384999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.881417</v>
+        <v>14.881417000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW7" s="1">
-        <v>-310.858000</v>
+        <v>-310.858</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>53584.207817</v>
+        <v>53584.207817000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.884502</v>
+        <v>14.884501999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1442.860000</v>
+        <v>1442.86</v>
       </c>
       <c r="BB7" s="1">
-        <v>-362.570000</v>
+        <v>-362.57</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>53595.095987</v>
+        <v>53595.095987000001</v>
       </c>
       <c r="BE7" s="1">
         <v>14.887527</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.770000</v>
+        <v>1528.77</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.511000</v>
+        <v>-608.51099999999997</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>53606.259445</v>
+        <v>53606.259445000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>14.890628</v>
       </c>
       <c r="BK7" s="1">
-        <v>1684.020000</v>
+        <v>1684.02</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1048.210000</v>
+        <v>-1048.21</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>53617.559303</v>
+        <v>53617.559303000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>14.893766</v>
+        <v>14.893765999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1978.930000</v>
+        <v>1978.93</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1807.940000</v>
+        <v>-1807.94</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>53629.277814</v>
+        <v>53629.277814000001</v>
       </c>
       <c r="BT7" s="1">
         <v>14.897022</v>
       </c>
       <c r="BU7" s="1">
-        <v>2366.400000</v>
+        <v>2366.4</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2680.150000</v>
+        <v>-2680.15</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>53640.284008</v>
+        <v>53640.284008000002</v>
       </c>
       <c r="BY7" s="1">
         <v>14.900079</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2848.920000</v>
+        <v>2848.92</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3634.260000</v>
+        <v>-3634.26</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>53651.640410</v>
+        <v>53651.64041</v>
       </c>
       <c r="CD7" s="1">
         <v>14.903233</v>
       </c>
       <c r="CE7" s="1">
-        <v>4258.690000</v>
+        <v>4258.6899999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5924.970000</v>
+        <v>-5924.97</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>53477.530751</v>
+        <v>53477.530750999998</v>
       </c>
       <c r="B8" s="1">
-        <v>14.854870</v>
+        <v>14.85487</v>
       </c>
       <c r="C8" s="1">
-        <v>1241.640000</v>
+        <v>1241.6400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-301.971000</v>
+        <v>-301.971</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>53488.585585</v>
+        <v>53488.585585000001</v>
       </c>
       <c r="G8" s="1">
-        <v>14.857940</v>
+        <v>14.857939999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="I8" s="1">
-        <v>-260.508000</v>
+        <v>-260.50799999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>53499.034834</v>
+        <v>53499.034833999998</v>
       </c>
       <c r="L8" s="1">
-        <v>14.860843</v>
+        <v>14.860842999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1300.780000</v>
+        <v>1300.78</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.509000</v>
+        <v>-200.50899999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>53509.579849</v>
+        <v>53509.579849000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>14.863772</v>
+        <v>14.863772000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1312.820000</v>
+        <v>1312.82</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.099000</v>
+        <v>-183.09899999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>53520.108822</v>
+        <v>53520.108822000002</v>
       </c>
       <c r="V8" s="1">
         <v>14.866697</v>
       </c>
       <c r="W8" s="1">
-        <v>1326.080000</v>
+        <v>1326.08</v>
       </c>
       <c r="X8" s="1">
-        <v>-169.834000</v>
+        <v>-169.834</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>53530.611316</v>
+        <v>53530.611316000002</v>
       </c>
       <c r="AA8" s="1">
         <v>14.869614</v>
       </c>
       <c r="AB8" s="1">
-        <v>1343.310000</v>
+        <v>1343.31</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.967000</v>
+        <v>-167.96700000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>53541.450219</v>
+        <v>53541.450218999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.872625</v>
+        <v>14.872624999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1356.320000</v>
+        <v>1356.32</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.820000</v>
+        <v>-177.82</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>53552.122640</v>
+        <v>53552.122640000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>14.875590</v>
+        <v>14.875590000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1376.960000</v>
+        <v>1376.96</v>
       </c>
       <c r="AM8" s="1">
-        <v>-207.617000</v>
+        <v>-207.61699999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>53562.841826</v>
+        <v>53562.841826000003</v>
       </c>
       <c r="AP8" s="1">
         <v>14.878567</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1398.710000</v>
+        <v>1398.71</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.212000</v>
+        <v>-251.21199999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>53573.411392</v>
+        <v>53573.411392000002</v>
       </c>
       <c r="AU8" s="1">
         <v>14.881503</v>
       </c>
       <c r="AV8" s="1">
-        <v>1423.400000</v>
+        <v>1423.4</v>
       </c>
       <c r="AW8" s="1">
-        <v>-310.849000</v>
+        <v>-310.84899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>53584.493540</v>
+        <v>53584.493540000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.884582</v>
       </c>
       <c r="BA8" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB8" s="1">
-        <v>-362.565000</v>
+        <v>-362.565</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>53595.459091</v>
+        <v>53595.459090999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>14.887628</v>
+        <v>14.887627999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.790000</v>
+        <v>1528.79</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.526000</v>
+        <v>-608.52599999999995</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>53606.643385</v>
+        <v>53606.643385000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>14.890734</v>
       </c>
       <c r="BK8" s="1">
-        <v>1684.060000</v>
+        <v>1684.06</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1048.170000</v>
+        <v>-1048.17</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>53617.977925</v>
+        <v>53617.977924999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.893883</v>
+        <v>14.893883000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.910000</v>
+        <v>1978.91</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1807.820000</v>
+        <v>-1807.82</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>53629.710334</v>
+        <v>53629.710334000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.897142</v>
+        <v>14.897142000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2366.220000</v>
+        <v>2366.2199999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2679.580000</v>
+        <v>-2679.58</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>53640.531511</v>
+        <v>53640.531511000001</v>
       </c>
       <c r="BY8" s="1">
         <v>14.900148</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2849.920000</v>
+        <v>2849.92</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3633.990000</v>
+        <v>-3633.99</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>53652.183820</v>
+        <v>53652.183819999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>14.903384</v>
+        <v>14.903384000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4270.260000</v>
+        <v>4270.26</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5908.100000</v>
+        <v>-5908.1</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>53478.175582</v>
+        <v>53478.175582000003</v>
       </c>
       <c r="B9" s="1">
-        <v>14.855049</v>
+        <v>14.855048999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1241.240000</v>
+        <v>1241.24</v>
       </c>
       <c r="D9" s="1">
-        <v>-301.901000</v>
+        <v>-301.90100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>53488.962080</v>
+        <v>53488.962079999998</v>
       </c>
       <c r="G9" s="1">
-        <v>14.858045</v>
+        <v>14.858045000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1265.450000</v>
+        <v>1265.45</v>
       </c>
       <c r="I9" s="1">
-        <v>-260.836000</v>
+        <v>-260.83600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>53499.403330</v>
+        <v>53499.403330000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.860945</v>
+        <v>14.860944999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1300.780000</v>
+        <v>1300.78</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.778000</v>
+        <v>-200.77799999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>53509.926454</v>
@@ -2325,315 +2741,315 @@
         <v>14.863868</v>
       </c>
       <c r="R9" s="1">
-        <v>1312.740000</v>
+        <v>1312.74</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.138000</v>
+        <v>-183.13800000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>53520.453542</v>
+        <v>53520.453542000003</v>
       </c>
       <c r="V9" s="1">
-        <v>14.866793</v>
+        <v>14.866792999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1326.050000</v>
+        <v>1326.05</v>
       </c>
       <c r="X9" s="1">
-        <v>-169.949000</v>
+        <v>-169.94900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>53530.958843</v>
       </c>
       <c r="AA9" s="1">
-        <v>14.869711</v>
+        <v>14.869711000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1343.250000</v>
+        <v>1343.25</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.055000</v>
+        <v>-168.05500000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>53541.880250</v>
+        <v>53541.880250000002</v>
       </c>
       <c r="AF9" s="1">
         <v>14.872745</v>
       </c>
       <c r="AG9" s="1">
-        <v>1356.530000</v>
+        <v>1356.53</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.710000</v>
+        <v>-177.71</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>53552.575452</v>
+        <v>53552.575451999997</v>
       </c>
       <c r="AK9" s="1">
         <v>14.875715</v>
       </c>
       <c r="AL9" s="1">
-        <v>1377.000000</v>
+        <v>1377</v>
       </c>
       <c r="AM9" s="1">
-        <v>-207.624000</v>
+        <v>-207.624</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>53563.137758</v>
+        <v>53563.137757999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>14.878649</v>
+        <v>14.878648999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1398.740000</v>
+        <v>1398.74</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.278000</v>
+        <v>-251.27799999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>53573.774466</v>
+        <v>53573.774466000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>14.881604</v>
+        <v>14.881603999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1423.400000</v>
+        <v>1423.4</v>
       </c>
       <c r="AW9" s="1">
-        <v>-310.863000</v>
+        <v>-310.863</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>53584.849156</v>
+        <v>53584.849155999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>14.884680</v>
+        <v>14.884679999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1442.840000</v>
+        <v>1442.84</v>
       </c>
       <c r="BB9" s="1">
-        <v>-362.567000</v>
+        <v>-362.56700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>53595.819652</v>
+        <v>53595.819651999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.887728</v>
+        <v>14.887727999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.810000</v>
+        <v>1528.81</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.524000</v>
+        <v>-608.524</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>53607.406195</v>
+        <v>53607.406195000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>14.890946</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.970000</v>
+        <v>1683.97</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1048.260000</v>
+        <v>-1048.26</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>53618.797812</v>
+        <v>53618.797811999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>14.894111</v>
+        <v>14.894111000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1979.040000</v>
+        <v>1979.04</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1807.900000</v>
+        <v>-1807.9</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>53630.136358</v>
+        <v>53630.136358000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.897260</v>
+        <v>14.897259999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2366.050000</v>
+        <v>2366.0500000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2679.750000</v>
+        <v>-2679.75</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>53640.961555</v>
+        <v>53640.961555000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>14.900267</v>
+        <v>14.900266999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2848.770000</v>
+        <v>2848.77</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3633.640000</v>
+        <v>-3633.64</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>53652.722681</v>
+        <v>53652.722680999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>14.903534</v>
+        <v>14.903534000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4250.730000</v>
+        <v>4250.7299999999996</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5918.190000</v>
+        <v>-5918.19</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>53478.555981</v>
+        <v>53478.555980999998</v>
       </c>
       <c r="B10" s="1">
-        <v>14.855154</v>
+        <v>14.855154000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1241.360000</v>
+        <v>1241.3599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-301.722000</v>
+        <v>-301.72199999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>53489.305775</v>
+        <v>53489.305775000001</v>
       </c>
       <c r="G10" s="1">
-        <v>14.858140</v>
+        <v>14.858140000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1266.170000</v>
+        <v>1266.17</v>
       </c>
       <c r="I10" s="1">
-        <v>-260.409000</v>
+        <v>-260.40899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>53499.747553</v>
+        <v>53499.747553000001</v>
       </c>
       <c r="L10" s="1">
         <v>14.861041</v>
       </c>
       <c r="M10" s="1">
-        <v>1300.810000</v>
+        <v>1300.81</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.457000</v>
+        <v>-200.45699999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>53510.277157</v>
+        <v>53510.277156999997</v>
       </c>
       <c r="Q10" s="1">
         <v>14.863966</v>
       </c>
       <c r="R10" s="1">
-        <v>1312.790000</v>
+        <v>1312.79</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.079000</v>
+        <v>-183.07900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>53520.876631</v>
+        <v>53520.876630999999</v>
       </c>
       <c r="V10" s="1">
-        <v>14.866910</v>
+        <v>14.866910000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1326.010000</v>
+        <v>1326.01</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.022000</v>
+        <v>-170.02199999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>53531.376441</v>
       </c>
       <c r="AA10" s="1">
-        <v>14.869827</v>
+        <v>14.869827000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1343.460000</v>
+        <v>1343.46</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.090000</v>
+        <v>-168.09</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>53542.160234</v>
+        <v>53542.160234000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>14.872822</v>
+        <v>14.872821999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1356.360000</v>
+        <v>1356.36</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.782000</v>
+        <v>-177.78200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>53552.825437</v>
@@ -2642,375 +3058,375 @@
         <v>14.875785</v>
       </c>
       <c r="AL10" s="1">
-        <v>1376.970000</v>
+        <v>1376.97</v>
       </c>
       <c r="AM10" s="1">
-        <v>-207.651000</v>
+        <v>-207.65100000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>53563.496367</v>
       </c>
       <c r="AP10" s="1">
-        <v>14.878749</v>
+        <v>14.878748999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.272000</v>
+        <v>-251.27199999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>53574.141506</v>
       </c>
       <c r="AU10" s="1">
-        <v>14.881706</v>
+        <v>14.881705999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW10" s="1">
-        <v>-310.865000</v>
+        <v>-310.86500000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>53585.210225</v>
+        <v>53585.210225000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.884781</v>
       </c>
       <c r="BA10" s="1">
-        <v>1442.890000</v>
+        <v>1442.89</v>
       </c>
       <c r="BB10" s="1">
-        <v>-362.597000</v>
+        <v>-362.59699999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>53596.546818</v>
+        <v>53596.546818000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>14.887930</v>
+        <v>14.887930000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.810000</v>
+        <v>1528.81</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.554000</v>
+        <v>-608.55399999999997</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>53607.784147</v>
+        <v>53607.784146999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>14.891051</v>
+        <v>14.891050999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.790000</v>
+        <v>1683.79</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1048.260000</v>
+        <v>-1048.26</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>53619.212964</v>
+        <v>53619.212963999998</v>
       </c>
       <c r="BO10" s="1">
         <v>14.894226</v>
       </c>
       <c r="BP10" s="1">
-        <v>1979.050000</v>
+        <v>1979.05</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1807.730000</v>
+        <v>-1807.73</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>53630.550022</v>
+        <v>53630.550022000003</v>
       </c>
       <c r="BT10" s="1">
         <v>14.897375</v>
       </c>
       <c r="BU10" s="1">
-        <v>2365.540000</v>
+        <v>2365.54</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2679.780000</v>
+        <v>-2679.78</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>53641.687718</v>
+        <v>53641.687718000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>14.900469</v>
+        <v>14.900468999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2849.140000</v>
+        <v>2849.14</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3634.380000</v>
+        <v>-3634.38</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>53653.564888</v>
+        <v>53653.564888000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>14.903768</v>
+        <v>14.903767999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4264.320000</v>
+        <v>4264.32</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5904.190000</v>
+        <v>-5904.19</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>53478.899425</v>
+        <v>53478.899425000003</v>
       </c>
       <c r="B11" s="1">
-        <v>14.855250</v>
+        <v>14.85525</v>
       </c>
       <c r="C11" s="1">
-        <v>1241.360000</v>
+        <v>1241.3599999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-301.857000</v>
+        <v>-301.85700000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>53489.653471</v>
+        <v>53489.653470999998</v>
       </c>
       <c r="G11" s="1">
-        <v>14.858237</v>
+        <v>14.858237000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1265.910000</v>
+        <v>1265.9100000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.335000</v>
+        <v>-261.33499999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>53500.093761</v>
+        <v>53500.093760999996</v>
       </c>
       <c r="L11" s="1">
-        <v>14.861137</v>
+        <v>14.861136999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1300.960000</v>
+        <v>1300.96</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.682000</v>
+        <v>-200.68199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>53510.705171</v>
+        <v>53510.705171000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>14.864085</v>
+        <v>14.864084999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1312.760000</v>
+        <v>1312.76</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.046000</v>
+        <v>-183.04599999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>53521.165333</v>
+        <v>53521.165332999997</v>
       </c>
       <c r="V11" s="1">
-        <v>14.866990</v>
+        <v>14.866989999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1325.850000</v>
+        <v>1325.85</v>
       </c>
       <c r="X11" s="1">
-        <v>-169.891000</v>
+        <v>-169.89099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>53531.646263</v>
+        <v>53531.646263000002</v>
       </c>
       <c r="AA11" s="1">
         <v>14.869902</v>
       </c>
       <c r="AB11" s="1">
-        <v>1343.330000</v>
+        <v>1343.33</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.091000</v>
+        <v>-168.09100000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>53542.501740</v>
+        <v>53542.50174</v>
       </c>
       <c r="AF11" s="1">
-        <v>14.872917</v>
+        <v>14.872916999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1356.260000</v>
+        <v>1356.26</v>
       </c>
       <c r="AH11" s="1">
-        <v>-177.809000</v>
+        <v>-177.809</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>53553.175115</v>
+        <v>53553.175114999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.875882</v>
+        <v>14.875882000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM11" s="1">
-        <v>-207.662000</v>
+        <v>-207.66200000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>53563.857468</v>
+        <v>53563.857468000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>14.878849</v>
+        <v>14.878849000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1398.710000</v>
+        <v>1398.71</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.296000</v>
+        <v>-251.29599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>53574.871150</v>
+        <v>53574.871149999999</v>
       </c>
       <c r="AU11" s="1">
         <v>14.881909</v>
       </c>
       <c r="AV11" s="1">
-        <v>1423.400000</v>
+        <v>1423.4</v>
       </c>
       <c r="AW11" s="1">
-        <v>-310.900000</v>
+        <v>-310.89999999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>53585.929425</v>
+        <v>53585.929425000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>14.884980</v>
+        <v>14.884980000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1442.850000</v>
+        <v>1442.85</v>
       </c>
       <c r="BB11" s="1">
-        <v>-362.574000</v>
+        <v>-362.57400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>53596.926262</v>
+        <v>53596.926262000001</v>
       </c>
       <c r="BE11" s="1">
         <v>14.888035</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.760000</v>
+        <v>1528.76</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.541000</v>
+        <v>-608.54100000000005</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>53608.157666</v>
+        <v>53608.157665999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.891155</v>
+        <v>14.891154999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.790000</v>
+        <v>1683.79</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1048.180000</v>
+        <v>-1048.18</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>53619.612739</v>
+        <v>53619.612738999997</v>
       </c>
       <c r="BO11" s="1">
         <v>14.894337</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1807.890000</v>
+        <v>-1807.89</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>53631.283606</v>
+        <v>53631.283605999997</v>
       </c>
       <c r="BT11" s="1">
         <v>14.897579</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.780000</v>
+        <v>2365.7800000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2680.120000</v>
+        <v>-2680.12</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>53641.832058</v>
@@ -3019,135 +3435,135 @@
         <v>14.900509</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2849.210000</v>
+        <v>2849.21</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3634.220000</v>
+        <v>-3634.22</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>53653.799495</v>
+        <v>53653.799494999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>14.903833</v>
+        <v>14.903833000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4260.470000</v>
+        <v>4260.47</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5903.320000</v>
+        <v>-5903.32</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>53479.239469</v>
       </c>
       <c r="B12" s="1">
-        <v>14.855344</v>
+        <v>14.855344000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1241.600000</v>
+        <v>1241.5999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-301.835000</v>
+        <v>-301.83499999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>53490.054735</v>
+        <v>53490.054734999998</v>
       </c>
       <c r="G12" s="1">
         <v>14.858349</v>
       </c>
       <c r="H12" s="1">
-        <v>1266.360000</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.688000</v>
+        <v>-260.68799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>53500.528784</v>
+        <v>53500.528784000002</v>
       </c>
       <c r="L12" s="1">
-        <v>14.861258</v>
+        <v>14.861257999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1301.170000</v>
+        <v>1301.17</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.678000</v>
+        <v>-200.678</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>53510.976515</v>
+        <v>53510.976515000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>14.864160</v>
+        <v>14.86416</v>
       </c>
       <c r="R12" s="1">
-        <v>1312.730000</v>
+        <v>1312.73</v>
       </c>
       <c r="S12" s="1">
-        <v>-182.970000</v>
+        <v>-182.97</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>53521.507573</v>
+        <v>53521.507573000003</v>
       </c>
       <c r="V12" s="1">
-        <v>14.867085</v>
+        <v>14.867084999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1326.060000</v>
+        <v>1326.06</v>
       </c>
       <c r="X12" s="1">
-        <v>-169.811000</v>
+        <v>-169.81100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>53532.004375</v>
+        <v>53532.004374999997</v>
       </c>
       <c r="AA12" s="1">
         <v>14.870001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1343.370000</v>
+        <v>1343.37</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.978000</v>
+        <v>-167.97800000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>53542.845970</v>
+        <v>53542.845970000002</v>
       </c>
       <c r="AF12" s="1">
         <v>14.873013</v>
       </c>
       <c r="AG12" s="1">
-        <v>1356.280000</v>
+        <v>1356.28</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.689000</v>
+        <v>-177.68899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>53553.871002</v>
@@ -3156,58 +3572,58 @@
         <v>14.876075</v>
       </c>
       <c r="AL12" s="1">
-        <v>1376.970000</v>
+        <v>1376.97</v>
       </c>
       <c r="AM12" s="1">
-        <v>-207.615000</v>
+        <v>-207.61500000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>53564.584589</v>
+        <v>53564.584588999998</v>
       </c>
       <c r="AP12" s="1">
         <v>14.879051</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1398.710000</v>
+        <v>1398.71</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.246000</v>
+        <v>-251.24600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>53575.262462</v>
+        <v>53575.262461999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>14.882017</v>
+        <v>14.882016999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1423.380000</v>
+        <v>1423.38</v>
       </c>
       <c r="AW12" s="1">
-        <v>-310.876000</v>
+        <v>-310.87599999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>53586.287536</v>
+        <v>53586.287536000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>14.885080</v>
+        <v>14.88508</v>
       </c>
       <c r="BA12" s="1">
-        <v>1442.890000</v>
+        <v>1442.89</v>
       </c>
       <c r="BB12" s="1">
-        <v>-362.563000</v>
+        <v>-362.56299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>53597.286816</v>
@@ -3216,120 +3632,120 @@
         <v>14.888135</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.508000</v>
+        <v>-608.50800000000004</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>53608.867938</v>
+        <v>53608.867938000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>14.891352</v>
+        <v>14.891351999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.770000</v>
+        <v>1683.77</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1048.040000</v>
+        <v>-1048.04</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>53620.359220</v>
+        <v>53620.359219999998</v>
       </c>
       <c r="BO12" s="1">
         <v>14.894544</v>
       </c>
       <c r="BP12" s="1">
-        <v>1978.860000</v>
+        <v>1978.86</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1807.710000</v>
+        <v>-1807.71</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>53631.409588</v>
+        <v>53631.409588000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>14.897614</v>
+        <v>14.897614000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.350000</v>
+        <v>2365.35</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2679.600000</v>
+        <v>-2679.6</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>53642.259077</v>
+        <v>53642.259077000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>14.900628</v>
+        <v>14.900627999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2849.420000</v>
+        <v>2849.42</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3633.790000</v>
+        <v>-3633.79</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>53654.319797</v>
+        <v>53654.319796999996</v>
       </c>
       <c r="CD12" s="1">
         <v>14.903978</v>
       </c>
       <c r="CE12" s="1">
-        <v>4250.920000</v>
+        <v>4250.92</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5917.350000</v>
+        <v>-5917.35</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>53479.664579</v>
+        <v>53479.664578999997</v>
       </c>
       <c r="B13" s="1">
-        <v>14.855462</v>
+        <v>14.855461999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1241.410000</v>
+        <v>1241.4100000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-302.092000</v>
+        <v>-302.09199999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>53490.345392</v>
+        <v>53490.345392000003</v>
       </c>
       <c r="G13" s="1">
-        <v>14.858429</v>
+        <v>14.858428999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1266.330000</v>
+        <v>1266.33</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.287000</v>
+        <v>-260.28699999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>53500.797306</v>
@@ -3338,647 +3754,647 @@
         <v>14.861333</v>
       </c>
       <c r="M13" s="1">
-        <v>1300.700000</v>
+        <v>1300.7</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.394000</v>
+        <v>-200.39400000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>53511.323187</v>
+        <v>53511.323187000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>14.864256</v>
+        <v>14.864255999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1312.810000</v>
+        <v>1312.81</v>
       </c>
       <c r="S13" s="1">
-        <v>-182.997000</v>
+        <v>-182.99700000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>53521.854244</v>
+        <v>53521.854244000002</v>
       </c>
       <c r="V13" s="1">
         <v>14.867182</v>
       </c>
       <c r="W13" s="1">
-        <v>1325.990000</v>
+        <v>1325.99</v>
       </c>
       <c r="X13" s="1">
-        <v>-169.973000</v>
+        <v>-169.97300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>53532.353558</v>
+        <v>53532.353558000003</v>
       </c>
       <c r="AA13" s="1">
         <v>14.870098</v>
       </c>
       <c r="AB13" s="1">
-        <v>1343.450000</v>
+        <v>1343.45</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.987000</v>
+        <v>-167.98699999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>53543.533911</v>
+        <v>53543.533910999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.873204</v>
+        <v>14.873203999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1356.220000</v>
+        <v>1356.22</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.836000</v>
+        <v>-177.83600000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>53554.218698</v>
+        <v>53554.218697999997</v>
       </c>
       <c r="AK13" s="1">
         <v>14.876172</v>
       </c>
       <c r="AL13" s="1">
-        <v>1376.950000</v>
+        <v>1376.95</v>
       </c>
       <c r="AM13" s="1">
-        <v>-207.620000</v>
+        <v>-207.62</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>53564.961083</v>
+        <v>53564.961083000002</v>
       </c>
       <c r="AP13" s="1">
         <v>14.879156</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1398.710000</v>
+        <v>1398.71</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.246000</v>
+        <v>-251.24600000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>53575.629502</v>
+        <v>53575.629502000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.882119</v>
+        <v>14.882118999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1423.390000</v>
+        <v>1423.39</v>
       </c>
       <c r="AW13" s="1">
-        <v>-310.856000</v>
+        <v>-310.85599999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>53586.644692</v>
+        <v>53586.644692000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.885179</v>
+        <v>14.885179000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB13" s="1">
-        <v>-362.566000</v>
+        <v>-362.56599999999997</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>53597.951952</v>
+        <v>53597.951952000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>14.888320</v>
+        <v>14.88832</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.750000</v>
+        <v>1528.75</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.520000</v>
+        <v>-608.52</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>53609.310834</v>
+        <v>53609.310834000004</v>
       </c>
       <c r="BJ13" s="1">
         <v>14.891475</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.970000</v>
+        <v>1683.97</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>53620.850755</v>
+        <v>53620.850754999999</v>
       </c>
       <c r="BO13" s="1">
         <v>14.894681</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.810000</v>
+        <v>1978.81</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1807.840000</v>
+        <v>-1807.84</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>53631.819779</v>
+        <v>53631.819778999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>14.897728</v>
+        <v>14.897728000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2365.100000</v>
+        <v>2365.1</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2679.640000</v>
+        <v>-2679.64</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>53642.675258</v>
+        <v>53642.675258000003</v>
       </c>
       <c r="BY13" s="1">
         <v>14.900743</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2849.470000</v>
+        <v>2849.47</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3633.160000</v>
+        <v>-3633.16</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>53654.837125</v>
+        <v>53654.837124999998</v>
       </c>
       <c r="CD13" s="1">
         <v>14.904121</v>
       </c>
       <c r="CE13" s="1">
-        <v>4253.400000</v>
+        <v>4253.3999999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5912.320000</v>
+        <v>-5912.32</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>53479.940813</v>
+        <v>53479.940813000001</v>
       </c>
       <c r="B14" s="1">
         <v>14.855539</v>
       </c>
       <c r="C14" s="1">
-        <v>1241.500000</v>
+        <v>1241.5</v>
       </c>
       <c r="D14" s="1">
-        <v>-301.895000</v>
+        <v>-301.89499999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>53490.686179</v>
+        <v>53490.686178999997</v>
       </c>
       <c r="G14" s="1">
-        <v>14.858524</v>
+        <v>14.858523999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1266.640000</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-260.770000</v>
+        <v>-260.77</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>53501.141344</v>
+        <v>53501.141344000003</v>
       </c>
       <c r="L14" s="1">
         <v>14.861428</v>
       </c>
       <c r="M14" s="1">
-        <v>1300.860000</v>
+        <v>1300.8599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.641000</v>
+        <v>-200.64099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>53511.672866</v>
+        <v>53511.672866000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>14.864354</v>
+        <v>14.864354000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1312.820000</v>
+        <v>1312.82</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.125000</v>
+        <v>-183.125</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>53522.538260</v>
+        <v>53522.538260000001</v>
       </c>
       <c r="V14" s="1">
         <v>14.867372</v>
       </c>
       <c r="W14" s="1">
-        <v>1326.040000</v>
+        <v>1326.04</v>
       </c>
       <c r="X14" s="1">
-        <v>-169.836000</v>
+        <v>-169.83600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>53533.050969</v>
+        <v>53533.050969000004</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.870292</v>
+        <v>14.870291999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1343.330000</v>
+        <v>1343.33</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.931000</v>
+        <v>-167.93100000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>53543.876887</v>
+        <v>53543.876886999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>14.873299</v>
+        <v>14.873298999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1356.080000</v>
+        <v>1356.08</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.739000</v>
+        <v>-177.739</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>53554.567417</v>
+        <v>53554.567416999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.876269</v>
+        <v>14.876269000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1376.970000</v>
+        <v>1376.97</v>
       </c>
       <c r="AM14" s="1">
-        <v>-207.624000</v>
+        <v>-207.624</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>53565.321147</v>
+        <v>53565.321147000002</v>
       </c>
       <c r="AP14" s="1">
         <v>14.879256</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1398.740000</v>
+        <v>1398.74</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.269000</v>
+        <v>-251.26900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>53576.310013</v>
+        <v>53576.310013000002</v>
       </c>
       <c r="AU14" s="1">
         <v>14.882308</v>
       </c>
       <c r="AV14" s="1">
-        <v>1423.400000</v>
+        <v>1423.4</v>
       </c>
       <c r="AW14" s="1">
-        <v>-310.893000</v>
+        <v>-310.89299999999997</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>53587.387696</v>
+        <v>53587.387695999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>14.885385</v>
+        <v>14.885384999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1442.890000</v>
+        <v>1442.89</v>
       </c>
       <c r="BB14" s="1">
-        <v>-362.570000</v>
+        <v>-362.57</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>53598.400335</v>
+        <v>53598.400334999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.888445</v>
+        <v>14.888445000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.720000</v>
+        <v>1528.72</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.510000</v>
+        <v>-608.51</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>53609.709649</v>
+        <v>53609.709648999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>14.891586</v>
       </c>
       <c r="BK14" s="1">
-        <v>1684.040000</v>
+        <v>1684.04</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1048.080000</v>
+        <v>-1048.08</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>53621.269379</v>
+        <v>53621.269378999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>14.894797</v>
+        <v>14.894797000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1978.700000</v>
+        <v>1978.7</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1807.620000</v>
+        <v>-1807.62</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>53632.253315</v>
+        <v>53632.253315000002</v>
       </c>
       <c r="BT14" s="1">
         <v>14.897848</v>
       </c>
       <c r="BU14" s="1">
-        <v>2365.120000</v>
+        <v>2365.12</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2679.960000</v>
+        <v>-2679.96</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>53643.123636</v>
+        <v>53643.123635999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>14.900868</v>
+        <v>14.900867999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2848.730000</v>
+        <v>2848.73</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3633.530000</v>
+        <v>-3633.53</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>53655.391195</v>
+        <v>53655.391194999997</v>
       </c>
       <c r="CD14" s="1">
         <v>14.904275</v>
       </c>
       <c r="CE14" s="1">
-        <v>4257.850000</v>
+        <v>4257.8500000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5903.700000</v>
+        <v>-5903.7</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>53480.283582</v>
+        <v>53480.283581999996</v>
       </c>
       <c r="B15" s="1">
         <v>14.855634</v>
       </c>
       <c r="C15" s="1">
-        <v>1241.560000</v>
+        <v>1241.56</v>
       </c>
       <c r="D15" s="1">
-        <v>-301.773000</v>
+        <v>-301.77300000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>53491.032381</v>
+        <v>53491.032380999997</v>
       </c>
       <c r="G15" s="1">
-        <v>14.858620</v>
+        <v>14.85862</v>
       </c>
       <c r="H15" s="1">
-        <v>1265.930000</v>
+        <v>1265.93</v>
       </c>
       <c r="I15" s="1">
-        <v>-261.803000</v>
+        <v>-261.803</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>53501.832239</v>
+        <v>53501.832239000003</v>
       </c>
       <c r="L15" s="1">
-        <v>14.861620</v>
+        <v>14.86162</v>
       </c>
       <c r="M15" s="1">
-        <v>1301.000000</v>
+        <v>1301</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.579000</v>
+        <v>-200.57900000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>53512.368289</v>
+        <v>53512.368288999998</v>
       </c>
       <c r="Q15" s="1">
         <v>14.864547</v>
       </c>
       <c r="R15" s="1">
-        <v>1312.770000</v>
+        <v>1312.77</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.096000</v>
+        <v>-183.096</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>53522.883443</v>
+        <v>53522.883442999999</v>
       </c>
       <c r="V15" s="1">
-        <v>14.867468</v>
+        <v>14.867468000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1326.010000</v>
+        <v>1326.01</v>
       </c>
       <c r="X15" s="1">
-        <v>-169.812000</v>
+        <v>-169.81200000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>53533.398673</v>
+        <v>53533.398673000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>14.870389</v>
+        <v>14.870388999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1343.300000</v>
+        <v>1343.3</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.019000</v>
+        <v>-168.01900000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>53544.210166</v>
+        <v>53544.210165999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>14.873392</v>
+        <v>14.873392000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1356.130000</v>
+        <v>1356.13</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.055000</v>
+        <v>-178.05500000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>53555.224617</v>
       </c>
       <c r="AK15" s="1">
-        <v>14.876451</v>
+        <v>14.876450999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM15" s="1">
-        <v>-207.605000</v>
+        <v>-207.60499999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>53565.991518</v>
+        <v>53565.991518000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>14.879442</v>
+        <v>14.879441999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1398.700000</v>
+        <v>1398.7</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.253000</v>
+        <v>-251.25299999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>53576.751453</v>
+        <v>53576.751452999997</v>
       </c>
       <c r="AU15" s="1">
         <v>14.882431</v>
       </c>
       <c r="AV15" s="1">
-        <v>1423.430000</v>
+        <v>1423.43</v>
       </c>
       <c r="AW15" s="1">
-        <v>-310.848000</v>
+        <v>-310.84800000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>53587.741842</v>
+        <v>53587.741842000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>14.885484</v>
       </c>
       <c r="BA15" s="1">
-        <v>1442.860000</v>
+        <v>1442.86</v>
       </c>
       <c r="BB15" s="1">
-        <v>-362.561000</v>
+        <v>-362.56099999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>53598.764399</v>
@@ -3987,270 +4403,270 @@
         <v>14.888546</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.810000</v>
+        <v>1528.81</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.544000</v>
+        <v>-608.54399999999998</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>53610.086081</v>
+        <v>53610.086081000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>14.891691</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.930000</v>
+        <v>1683.93</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1048.130000</v>
+        <v>-1048.1300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>53621.683077</v>
+        <v>53621.683077000002</v>
       </c>
       <c r="BO15" s="1">
         <v>14.894912</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.910000</v>
+        <v>1978.91</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1807.590000</v>
+        <v>-1807.59</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>53632.679382</v>
+        <v>53632.679382000002</v>
       </c>
       <c r="BT15" s="1">
         <v>14.897966</v>
       </c>
       <c r="BU15" s="1">
-        <v>2364.890000</v>
+        <v>2364.89</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2679.760000</v>
+        <v>-2679.76</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>53643.545701</v>
+        <v>53643.545701000003</v>
       </c>
       <c r="BY15" s="1">
         <v>14.900985</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2849.660000</v>
+        <v>2849.66</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3634.310000</v>
+        <v>-3634.31</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>53655.915923</v>
       </c>
       <c r="CD15" s="1">
-        <v>14.904421</v>
+        <v>14.904420999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4251.130000</v>
+        <v>4251.13</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5918.860000</v>
+        <v>-5918.86</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>53480.623804</v>
+        <v>53480.623804000003</v>
       </c>
       <c r="B16" s="1">
         <v>14.855729</v>
       </c>
       <c r="C16" s="1">
-        <v>1241.650000</v>
+        <v>1241.6500000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-302.385000</v>
+        <v>-302.38499999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>53491.721788</v>
+        <v>53491.721788000003</v>
       </c>
       <c r="G16" s="1">
         <v>14.858812</v>
       </c>
       <c r="H16" s="1">
-        <v>1265.210000</v>
+        <v>1265.21</v>
       </c>
       <c r="I16" s="1">
-        <v>-260.985000</v>
+        <v>-260.98500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>53502.176462</v>
+        <v>53502.176462000003</v>
       </c>
       <c r="L16" s="1">
-        <v>14.861716</v>
+        <v>14.861715999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1300.850000</v>
+        <v>1300.8499999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.815000</v>
+        <v>-200.815</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>53512.717937</v>
+        <v>53512.717937000001</v>
       </c>
       <c r="Q16" s="1">
         <v>14.864644</v>
       </c>
       <c r="R16" s="1">
-        <v>1312.720000</v>
+        <v>1312.72</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.062000</v>
+        <v>-183.06200000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>53523.226179</v>
+        <v>53523.226178999998</v>
       </c>
       <c r="V16" s="1">
-        <v>14.867563</v>
+        <v>14.867563000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1326.040000</v>
+        <v>1326.04</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.740000</v>
+        <v>-169.74</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>53533.747812</v>
+        <v>53533.747812000001</v>
       </c>
       <c r="AA16" s="1">
         <v>14.870486</v>
       </c>
       <c r="AB16" s="1">
-        <v>1343.350000</v>
+        <v>1343.35</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.009000</v>
+        <v>-168.00899999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>53544.877580</v>
+        <v>53544.87758</v>
       </c>
       <c r="AF16" s="1">
-        <v>14.873577</v>
+        <v>14.873576999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1356.540000</v>
+        <v>1356.54</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.930000</v>
+        <v>-177.93</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>53555.612952</v>
+        <v>53555.612952000003</v>
       </c>
       <c r="AK16" s="1">
         <v>14.876559</v>
       </c>
       <c r="AL16" s="1">
-        <v>1376.960000</v>
+        <v>1376.96</v>
       </c>
       <c r="AM16" s="1">
-        <v>-207.600000</v>
+        <v>-207.6</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>53566.399977</v>
+        <v>53566.399977000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>14.879556</v>
+        <v>14.879555999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1398.710000</v>
+        <v>1398.71</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.264000</v>
+        <v>-251.26400000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>53577.113035</v>
+        <v>53577.113035000002</v>
       </c>
       <c r="AU16" s="1">
         <v>14.882531</v>
       </c>
       <c r="AV16" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW16" s="1">
-        <v>-310.827000</v>
+        <v>-310.827</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>53588.077598</v>
+        <v>53588.077598000003</v>
       </c>
       <c r="AZ16" s="1">
         <v>14.885577</v>
       </c>
       <c r="BA16" s="1">
-        <v>1442.840000</v>
+        <v>1442.84</v>
       </c>
       <c r="BB16" s="1">
-        <v>-362.581000</v>
+        <v>-362.58100000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>53599.124496</v>
+        <v>53599.124495999997</v>
       </c>
       <c r="BE16" s="1">
         <v>14.888646</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.760000</v>
+        <v>1528.76</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.504000</v>
+        <v>-608.50400000000002</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>53610.512143</v>
@@ -4259,13 +4675,13 @@
         <v>14.891809</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.950000</v>
+        <v>1683.95</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1048.020000</v>
+        <v>-1048.02</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>53622.176561</v>
@@ -4274,120 +4690,120 @@
         <v>14.895049</v>
       </c>
       <c r="BP16" s="1">
-        <v>1978.760000</v>
+        <v>1978.76</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1807.720000</v>
+        <v>-1807.72</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>53633.094001</v>
+        <v>53633.094000999998</v>
       </c>
       <c r="BT16" s="1">
         <v>14.898082</v>
       </c>
       <c r="BU16" s="1">
-        <v>2364.690000</v>
+        <v>2364.69</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2680.020000</v>
+        <v>-2680.02</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>53643.968819</v>
+        <v>53643.968819000002</v>
       </c>
       <c r="BY16" s="1">
         <v>14.901102</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2849.720000</v>
+        <v>2849.72</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3634.010000</v>
+        <v>-3634.01</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>53656.436754</v>
+        <v>53656.436754000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>14.904566</v>
+        <v>14.904566000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4272.860000</v>
+        <v>4272.8599999999997</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5916.040000</v>
+        <v>-5916.04</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>53481.304810</v>
+        <v>53481.304810000001</v>
       </c>
       <c r="B17" s="1">
-        <v>14.855918</v>
+        <v>14.855918000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1241.510000</v>
+        <v>1241.51</v>
       </c>
       <c r="D17" s="1">
-        <v>-301.769000</v>
+        <v>-301.76900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>53492.066507</v>
+        <v>53492.066507000003</v>
       </c>
       <c r="G17" s="1">
         <v>14.858907</v>
       </c>
       <c r="H17" s="1">
-        <v>1266.040000</v>
+        <v>1266.04</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.497000</v>
+        <v>-261.49700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>53502.523166</v>
+        <v>53502.523165999999</v>
       </c>
       <c r="L17" s="1">
         <v>14.861812</v>
       </c>
       <c r="M17" s="1">
-        <v>1301.000000</v>
+        <v>1301</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.627000</v>
+        <v>-200.62700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>53513.065137</v>
+        <v>53513.065136999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.864740</v>
+        <v>14.864739999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1312.750000</v>
+        <v>1312.75</v>
       </c>
       <c r="S17" s="1">
-        <v>-182.997000</v>
+        <v>-182.99700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>53523.878741</v>
@@ -4396,73 +4812,73 @@
         <v>14.867744</v>
       </c>
       <c r="W17" s="1">
-        <v>1325.940000</v>
+        <v>1325.94</v>
       </c>
       <c r="X17" s="1">
-        <v>-169.755000</v>
+        <v>-169.755</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>53534.419892</v>
+        <v>53534.419891999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.870672</v>
+        <v>14.870672000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1343.390000</v>
+        <v>1343.39</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.001000</v>
+        <v>-168.001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>53545.249080</v>
+        <v>53545.249080000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.873680</v>
+        <v>14.87368</v>
       </c>
       <c r="AG17" s="1">
-        <v>1356.420000</v>
+        <v>1356.42</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.662000</v>
+        <v>-177.66200000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>53555.959667</v>
+        <v>53555.959667000003</v>
       </c>
       <c r="AK17" s="1">
         <v>14.876655</v>
       </c>
       <c r="AL17" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM17" s="1">
-        <v>-207.618000</v>
+        <v>-207.61799999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>53566.784841</v>
+        <v>53566.784841000001</v>
       </c>
       <c r="AP17" s="1">
         <v>14.879662</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1398.720000</v>
+        <v>1398.72</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.256000</v>
+        <v>-251.256</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>53577.480572</v>
@@ -4471,150 +4887,150 @@
         <v>14.882633</v>
       </c>
       <c r="AV17" s="1">
-        <v>1423.410000</v>
+        <v>1423.41</v>
       </c>
       <c r="AW17" s="1">
-        <v>-310.826000</v>
+        <v>-310.82600000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>53588.494274</v>
+        <v>53588.494273999997</v>
       </c>
       <c r="AZ17" s="1">
         <v>14.885693</v>
       </c>
       <c r="BA17" s="1">
-        <v>1442.860000</v>
+        <v>1442.86</v>
       </c>
       <c r="BB17" s="1">
-        <v>-362.564000</v>
+        <v>-362.56400000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>53599.547087</v>
+        <v>53599.547086999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.888763</v>
+        <v>14.888763000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.760000</v>
+        <v>1528.76</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.529000</v>
+        <v>-608.529</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>53610.861823</v>
+        <v>53610.861822999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>14.891906</v>
+        <v>14.891906000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.880000</v>
+        <v>1683.88</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1048.160000</v>
+        <v>-1048.1600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>53622.496511</v>
+        <v>53622.496510999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.895138</v>
+        <v>14.895137999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.620000</v>
+        <v>1978.62</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1807.530000</v>
+        <v>-1807.53</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>53633.522544</v>
+        <v>53633.522543999999</v>
       </c>
       <c r="BT17" s="1">
         <v>14.898201</v>
       </c>
       <c r="BU17" s="1">
-        <v>2364.450000</v>
+        <v>2364.4499999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2680.060000</v>
+        <v>-2680.06</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>53644.412707</v>
+        <v>53644.412707000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>14.901226</v>
+        <v>14.901225999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2848.880000</v>
+        <v>2848.88</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3632.980000</v>
+        <v>-3632.98</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>53656.976369</v>
+        <v>53656.976369000004</v>
       </c>
       <c r="CD17" s="1">
-        <v>14.904716</v>
+        <v>14.904716000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4251.490000</v>
+        <v>4251.49</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5910.170000</v>
+        <v>-5910.17</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>53481.649033</v>
+        <v>53481.649033000002</v>
       </c>
       <c r="B18" s="1">
         <v>14.856014</v>
       </c>
       <c r="C18" s="1">
-        <v>1241.720000</v>
+        <v>1241.72</v>
       </c>
       <c r="D18" s="1">
-        <v>-301.719000</v>
+        <v>-301.71899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>53492.408280</v>
+        <v>53492.408280000003</v>
       </c>
       <c r="G18" s="1">
         <v>14.859002</v>
       </c>
       <c r="H18" s="1">
-        <v>1266.530000</v>
+        <v>1266.53</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.239000</v>
+        <v>-261.23899999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>53503.186318</v>
@@ -4623,390 +5039,390 @@
         <v>14.861996</v>
       </c>
       <c r="M18" s="1">
-        <v>1301.080000</v>
+        <v>1301.08</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.667000</v>
+        <v>-200.667</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>53513.721839</v>
+        <v>53513.721838999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>14.864923</v>
+        <v>14.864922999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1312.850000</v>
+        <v>1312.85</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.001000</v>
+        <v>-183.001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>53524.256865</v>
+        <v>53524.256865000003</v>
       </c>
       <c r="V18" s="1">
         <v>14.867849</v>
       </c>
       <c r="W18" s="1">
-        <v>1326.220000</v>
+        <v>1326.22</v>
       </c>
       <c r="X18" s="1">
-        <v>-169.968000</v>
+        <v>-169.96799999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>53534.794371</v>
+        <v>53534.794371000004</v>
       </c>
       <c r="AA18" s="1">
-        <v>14.870776</v>
+        <v>14.870775999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1343.260000</v>
+        <v>1343.26</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.077000</v>
+        <v>-168.077</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>53545.594262</v>
+        <v>53545.594261999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.873776</v>
+        <v>14.873775999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1356.470000</v>
+        <v>1356.47</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.726000</v>
+        <v>-177.726</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>53556.310822</v>
+        <v>53556.310821999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>14.876753</v>
+        <v>14.876753000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1376.980000</v>
+        <v>1376.98</v>
       </c>
       <c r="AM18" s="1">
-        <v>-207.617000</v>
+        <v>-207.61699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>53567.145928</v>
+        <v>53567.145927999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.879763</v>
+        <v>14.879763000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1398.730000</v>
+        <v>1398.73</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.220000</v>
+        <v>-251.22</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>53577.898728</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.882750</v>
+        <v>14.88275</v>
       </c>
       <c r="AV18" s="1">
-        <v>1423.410000</v>
+        <v>1423.41</v>
       </c>
       <c r="AW18" s="1">
-        <v>-310.857000</v>
+        <v>-310.85700000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>53588.795836</v>
+        <v>53588.795835999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.885777</v>
+        <v>14.885776999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB18" s="1">
-        <v>-362.564000</v>
+        <v>-362.56400000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>53599.847165</v>
+        <v>53599.847164999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>14.888846</v>
+        <v>14.888845999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.750000</v>
+        <v>1528.75</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.502000</v>
+        <v>-608.50199999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>53611.238319</v>
+        <v>53611.238318999996</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.892011</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.810000</v>
+        <v>1683.81</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1047.890000</v>
+        <v>-1047.8900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>53622.907664</v>
+        <v>53622.907663999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>14.895252</v>
+        <v>14.895251999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1978.670000</v>
+        <v>1978.67</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1807.460000</v>
+        <v>-1807.46</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>53633.953074</v>
+        <v>53633.953073999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>14.898320</v>
+        <v>14.89832</v>
       </c>
       <c r="BU18" s="1">
-        <v>2364.560000</v>
+        <v>2364.56</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2680.380000</v>
+        <v>-2680.38</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>53644.851698</v>
+        <v>53644.851697999999</v>
       </c>
       <c r="BY18" s="1">
         <v>14.901348</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2849.070000</v>
+        <v>2849.07</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3632.690000</v>
+        <v>-3632.69</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>53657.516017</v>
+        <v>53657.516017000002</v>
       </c>
       <c r="CD18" s="1">
         <v>14.904866</v>
       </c>
       <c r="CE18" s="1">
-        <v>4264.060000</v>
+        <v>4264.0600000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5922.280000</v>
+        <v>-5922.28</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>53481.991802</v>
+        <v>53481.991801999997</v>
       </c>
       <c r="B19" s="1">
         <v>14.856109</v>
       </c>
       <c r="C19" s="1">
-        <v>1241.770000</v>
+        <v>1241.77</v>
       </c>
       <c r="D19" s="1">
-        <v>-301.862000</v>
+        <v>-301.86200000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>53493.068960</v>
+        <v>53493.068959999997</v>
       </c>
       <c r="G19" s="1">
-        <v>14.859186</v>
+        <v>14.859185999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1265.570000</v>
+        <v>1265.57</v>
       </c>
       <c r="I19" s="1">
-        <v>-260.854000</v>
+        <v>-260.85399999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>53503.561292</v>
+        <v>53503.561291999999</v>
       </c>
       <c r="L19" s="1">
-        <v>14.862100</v>
+        <v>14.8621</v>
       </c>
       <c r="M19" s="1">
-        <v>1301.050000</v>
+        <v>1301.05</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.558000</v>
+        <v>-200.55799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>53514.114176</v>
+        <v>53514.114176000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>14.865032</v>
+        <v>14.865031999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1312.810000</v>
+        <v>1312.81</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.007000</v>
+        <v>-183.00700000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>53524.602082</v>
+        <v>53524.602081999998</v>
       </c>
       <c r="V19" s="1">
-        <v>14.867945</v>
+        <v>14.867945000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1325.950000</v>
+        <v>1325.95</v>
       </c>
       <c r="X19" s="1">
-        <v>-169.976000</v>
+        <v>-169.976</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>53535.142068</v>
+        <v>53535.142068000001</v>
       </c>
       <c r="AA19" s="1">
         <v>14.870873</v>
       </c>
       <c r="AB19" s="1">
-        <v>1343.300000</v>
+        <v>1343.3</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.089000</v>
+        <v>-168.089</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>53545.945460</v>
+        <v>53545.945460000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.873874</v>
+        <v>14.873874000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1356.300000</v>
+        <v>1356.3</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.818000</v>
+        <v>-177.81800000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>53556.723990</v>
+        <v>53556.723989999999</v>
       </c>
       <c r="AK19" s="1">
         <v>14.876868</v>
       </c>
       <c r="AL19" s="1">
-        <v>1376.950000</v>
+        <v>1376.95</v>
       </c>
       <c r="AM19" s="1">
-        <v>-207.589000</v>
+        <v>-207.589</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>53567.571001</v>
+        <v>53567.571000999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>14.879881</v>
+        <v>14.879880999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1398.720000</v>
+        <v>1398.72</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.262000</v>
+        <v>-251.262</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>53578.210683</v>
+        <v>53578.210682999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.882836</v>
+        <v>14.882835999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1423.410000</v>
+        <v>1423.41</v>
       </c>
       <c r="AW19" s="1">
-        <v>-310.861000</v>
+        <v>-310.86099999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>53589.156893</v>
+        <v>53589.156892999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.885877</v>
+        <v>14.885877000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB19" s="1">
-        <v>-362.539000</v>
+        <v>-362.53899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>53600.210734</v>
@@ -5015,348 +5431,348 @@
         <v>14.888947</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.780000</v>
+        <v>1528.78</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.505000</v>
+        <v>-608.505</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>53611.611774</v>
+        <v>53611.611773999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>14.892114</v>
+        <v>14.892113999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.860000</v>
+        <v>1683.86</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>53623.722589</v>
+        <v>53623.722588999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>14.895478</v>
+        <v>14.895478000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1978.790000</v>
+        <v>1978.79</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1807.510000</v>
+        <v>-1807.51</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>53634.366260</v>
+        <v>53634.366260000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>14.898435</v>
+        <v>14.898434999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2364.070000</v>
+        <v>2364.0700000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2680.170000</v>
+        <v>-2680.17</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>53645.300547</v>
+        <v>53645.300546999999</v>
       </c>
       <c r="BY19" s="1">
         <v>14.901472</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2848.560000</v>
+        <v>2848.56</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3633.250000</v>
+        <v>-3633.25</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>53658.053680</v>
+        <v>53658.053679999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.905015</v>
+        <v>14.905015000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4265.770000</v>
+        <v>4265.7700000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5905.250000</v>
+        <v>-5905.25</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>53482.646030</v>
+        <v>53482.646030000004</v>
       </c>
       <c r="B20" s="1">
-        <v>14.856291</v>
+        <v>14.856291000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1241.600000</v>
+        <v>1241.5999999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-301.824000</v>
+        <v>-301.82400000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>53493.444394</v>
+        <v>53493.444393999998</v>
       </c>
       <c r="G20" s="1">
-        <v>14.859290</v>
+        <v>14.85929</v>
       </c>
       <c r="H20" s="1">
-        <v>1266.260000</v>
+        <v>1266.26</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.598000</v>
+        <v>-261.59800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>53503.907004</v>
+        <v>53503.907004000001</v>
       </c>
       <c r="L20" s="1">
-        <v>14.862196</v>
+        <v>14.862196000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1301.000000</v>
+        <v>1301</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.939000</v>
+        <v>-200.93899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>53514.460878</v>
+        <v>53514.460877999998</v>
       </c>
       <c r="Q20" s="1">
         <v>14.865128</v>
       </c>
       <c r="R20" s="1">
-        <v>1312.850000</v>
+        <v>1312.85</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.041000</v>
+        <v>-183.041</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>53524.945312</v>
+        <v>53524.945312000003</v>
       </c>
       <c r="V20" s="1">
-        <v>14.868040</v>
+        <v>14.868040000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1325.790000</v>
+        <v>1325.79</v>
       </c>
       <c r="X20" s="1">
-        <v>-169.833000</v>
+        <v>-169.833</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>53535.517570</v>
+        <v>53535.517570000004</v>
       </c>
       <c r="AA20" s="1">
         <v>14.870977</v>
       </c>
       <c r="AB20" s="1">
-        <v>1343.320000</v>
+        <v>1343.32</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.068000</v>
+        <v>-168.06800000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>53546.367065</v>
+        <v>53546.367064999999</v>
       </c>
       <c r="AF20" s="1">
         <v>14.873991</v>
       </c>
       <c r="AG20" s="1">
-        <v>1356.360000</v>
+        <v>1356.36</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.799000</v>
+        <v>-177.79900000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>53557.006746</v>
+        <v>53557.006745999999</v>
       </c>
       <c r="AK20" s="1">
         <v>14.876946</v>
       </c>
       <c r="AL20" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM20" s="1">
-        <v>-207.616000</v>
+        <v>-207.61600000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>53567.864167</v>
       </c>
       <c r="AP20" s="1">
-        <v>14.879962</v>
+        <v>14.879962000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1398.710000</v>
+        <v>1398.71</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.242000</v>
+        <v>-251.24199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>53578.571771</v>
+        <v>53578.571771000003</v>
       </c>
       <c r="AU20" s="1">
         <v>14.882937</v>
       </c>
       <c r="AV20" s="1">
-        <v>1423.390000</v>
+        <v>1423.39</v>
       </c>
       <c r="AW20" s="1">
-        <v>-310.827000</v>
+        <v>-310.827</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>53589.514044</v>
+        <v>53589.514044000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>14.885976</v>
+        <v>14.885975999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB20" s="1">
-        <v>-362.583000</v>
+        <v>-362.58300000000003</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>53600.570368</v>
+        <v>53600.570368000001</v>
       </c>
       <c r="BE20" s="1">
         <v>14.889047</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.760000</v>
+        <v>1528.76</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.454000</v>
+        <v>-608.45399999999995</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>53612.363726</v>
+        <v>53612.363726000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>14.892323</v>
+        <v>14.892322999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1048.030000</v>
+        <v>-1048.03</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>53624.140221</v>
+        <v>53624.140221000001</v>
       </c>
       <c r="BO20" s="1">
         <v>14.895595</v>
       </c>
       <c r="BP20" s="1">
-        <v>1978.880000</v>
+        <v>1978.88</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1807.540000</v>
+        <v>-1807.54</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>53634.795805</v>
+        <v>53634.795805000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.898554</v>
+        <v>14.898554000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2364.100000</v>
+        <v>2364.1</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2680.440000</v>
+        <v>-2680.44</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>53645.720658</v>
+        <v>53645.720657999998</v>
       </c>
       <c r="BY20" s="1">
         <v>14.901589</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2849.070000</v>
+        <v>2849.07</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3633.490000</v>
+        <v>-3633.49</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>53658.901343</v>
+        <v>53658.901342999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>14.905250</v>
+        <v>14.905250000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4268.440000</v>
+        <v>4268.4399999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5921.850000</v>
+        <v>-5921.85</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>53483.017496</v>
       </c>
@@ -5364,889 +5780,889 @@
         <v>14.856394</v>
       </c>
       <c r="C21" s="1">
-        <v>1241.590000</v>
+        <v>1241.5899999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-301.872000</v>
+        <v>-301.87200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>53493.788123</v>
+        <v>53493.788122999998</v>
       </c>
       <c r="G21" s="1">
-        <v>14.859386</v>
+        <v>14.859386000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1266.050000</v>
+        <v>1266.05</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.163000</v>
+        <v>-261.16300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>53504.252717</v>
+        <v>53504.252717000003</v>
       </c>
       <c r="L21" s="1">
         <v>14.862292</v>
       </c>
       <c r="M21" s="1">
-        <v>1300.730000</v>
+        <v>1300.73</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.591000</v>
+        <v>-200.59100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>53514.810098</v>
+        <v>53514.810098000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>14.865225</v>
+        <v>14.865225000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1312.720000</v>
+        <v>1312.72</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.044000</v>
+        <v>-183.04400000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>53525.375376</v>
+        <v>53525.375376000004</v>
       </c>
       <c r="V21" s="1">
-        <v>14.868160</v>
+        <v>14.86816</v>
       </c>
       <c r="W21" s="1">
-        <v>1325.880000</v>
+        <v>1325.88</v>
       </c>
       <c r="X21" s="1">
-        <v>-169.955000</v>
+        <v>-169.95500000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>53536.188161</v>
+        <v>53536.188160999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.871163</v>
+        <v>14.871162999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1343.460000</v>
+        <v>1343.46</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.009000</v>
+        <v>-168.00899999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>53546.647299</v>
+        <v>53546.647298999997</v>
       </c>
       <c r="AF21" s="1">
         <v>14.874069</v>
       </c>
       <c r="AG21" s="1">
-        <v>1356.450000</v>
+        <v>1356.45</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.755000</v>
+        <v>-177.755</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>53557.356391</v>
+        <v>53557.356391000001</v>
       </c>
       <c r="AK21" s="1">
         <v>14.877043</v>
       </c>
       <c r="AL21" s="1">
-        <v>1376.930000</v>
+        <v>1376.93</v>
       </c>
       <c r="AM21" s="1">
-        <v>-207.636000</v>
+        <v>-207.636</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>53568.225224</v>
+        <v>53568.225224000002</v>
       </c>
       <c r="AP21" s="1">
         <v>14.880063</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1398.720000</v>
+        <v>1398.72</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.242000</v>
+        <v>-251.24199999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>53578.938809</v>
+        <v>53578.938808999999</v>
       </c>
       <c r="AU21" s="1">
         <v>14.883039</v>
       </c>
       <c r="AV21" s="1">
-        <v>1423.410000</v>
+        <v>1423.41</v>
       </c>
       <c r="AW21" s="1">
-        <v>-310.850000</v>
+        <v>-310.85000000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>53590.239662</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.886178</v>
+        <v>14.886177999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1442.850000</v>
+        <v>1442.85</v>
       </c>
       <c r="BB21" s="1">
-        <v>-362.577000</v>
+        <v>-362.577</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>53601.294493</v>
+        <v>53601.294493000001</v>
       </c>
       <c r="BE21" s="1">
         <v>14.889248</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.760000</v>
+        <v>1528.76</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.439000</v>
+        <v>-608.43899999999996</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>53612.738188</v>
+        <v>53612.738188000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.892427</v>
       </c>
       <c r="BK21" s="1">
-        <v>1684.030000</v>
+        <v>1684.03</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1047.910000</v>
+        <v>-1047.9100000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>53624.538545</v>
+        <v>53624.538545000003</v>
       </c>
       <c r="BO21" s="1">
         <v>14.895705</v>
       </c>
       <c r="BP21" s="1">
-        <v>1978.570000</v>
+        <v>1978.57</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1807.520000</v>
+        <v>-1807.52</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>53635.221839</v>
+        <v>53635.221838999998</v>
       </c>
       <c r="BT21" s="1">
         <v>14.898673</v>
       </c>
       <c r="BU21" s="1">
-        <v>2364.080000</v>
+        <v>2364.08</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2680.440000</v>
+        <v>-2680.44</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>53646.455264</v>
+        <v>53646.455263999997</v>
       </c>
       <c r="BY21" s="1">
         <v>14.901793</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2849.250000</v>
+        <v>2849.25</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3633.210000</v>
+        <v>-3633.21</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>53659.136945</v>
+        <v>53659.136944999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>14.905316</v>
+        <v>14.905315999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4266.840000</v>
+        <v>4266.84</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5920.210000</v>
+        <v>-5920.21</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>53483.361269</v>
+        <v>53483.361269000001</v>
       </c>
       <c r="B22" s="1">
         <v>14.856489</v>
       </c>
       <c r="C22" s="1">
-        <v>1241.600000</v>
+        <v>1241.5999999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-301.899000</v>
+        <v>-301.899</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>53494.132378</v>
+        <v>53494.132378000002</v>
       </c>
       <c r="G22" s="1">
-        <v>14.859481</v>
+        <v>14.859481000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1266.330000</v>
+        <v>1266.33</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.109000</v>
+        <v>-261.10899999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>53504.674316</v>
+        <v>53504.674315999997</v>
       </c>
       <c r="L22" s="1">
-        <v>14.862410</v>
+        <v>14.862410000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1300.950000</v>
+        <v>1300.95</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.321000</v>
+        <v>-200.321</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>53515.230669</v>
+        <v>53515.230668999997</v>
       </c>
       <c r="Q22" s="1">
         <v>14.865342</v>
       </c>
       <c r="R22" s="1">
-        <v>1312.720000</v>
+        <v>1312.72</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.024000</v>
+        <v>-183.024</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>53525.654128</v>
+        <v>53525.654128000002</v>
       </c>
       <c r="V22" s="1">
-        <v>14.868237</v>
+        <v>14.868237000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1325.870000</v>
+        <v>1325.87</v>
       </c>
       <c r="X22" s="1">
-        <v>-169.869000</v>
+        <v>-169.869</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>53536.536322</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.871260</v>
+        <v>14.871259999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1343.340000</v>
+        <v>1343.34</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.965000</v>
+        <v>-167.965</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>53546.990530</v>
+        <v>53546.990530000003</v>
       </c>
       <c r="AF22" s="1">
         <v>14.874164</v>
       </c>
       <c r="AG22" s="1">
-        <v>1356.170000</v>
+        <v>1356.17</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.578000</v>
+        <v>-177.578</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>53557.705109</v>
+        <v>53557.705109000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>14.877140</v>
+        <v>14.877140000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1376.980000</v>
+        <v>1376.98</v>
       </c>
       <c r="AM22" s="1">
-        <v>-207.606000</v>
+        <v>-207.60599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>53568.584823</v>
+        <v>53568.584822999997</v>
       </c>
       <c r="AP22" s="1">
         <v>14.880162</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1398.730000</v>
+        <v>1398.73</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.237000</v>
+        <v>-251.23699999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>53579.666937</v>
+        <v>53579.666937000002</v>
       </c>
       <c r="AU22" s="1">
         <v>14.883241</v>
       </c>
       <c r="AV22" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW22" s="1">
-        <v>-310.841000</v>
+        <v>-310.84100000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>53590.615129</v>
+        <v>53590.615128999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>14.886282</v>
       </c>
       <c r="BA22" s="1">
-        <v>1442.900000</v>
+        <v>1442.9</v>
       </c>
       <c r="BB22" s="1">
-        <v>-362.540000</v>
+        <v>-362.54</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>53601.683883</v>
+        <v>53601.683882999998</v>
       </c>
       <c r="BE22" s="1">
         <v>14.889357</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.475000</v>
+        <v>-608.47500000000002</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>53613.115179</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.892532</v>
+        <v>14.892531999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.890000</v>
+        <v>1683.89</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1048.070000</v>
+        <v>-1048.07</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>53625.273581</v>
+        <v>53625.273581000001</v>
       </c>
       <c r="BO22" s="1">
         <v>14.895909</v>
       </c>
       <c r="BP22" s="1">
-        <v>1978.730000</v>
+        <v>1978.73</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1807.500000</v>
+        <v>-1807.5</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>53635.950463</v>
+        <v>53635.950463000001</v>
       </c>
       <c r="BT22" s="1">
         <v>14.898875</v>
       </c>
       <c r="BU22" s="1">
-        <v>2363.990000</v>
+        <v>2363.9899999999998</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2680.810000</v>
+        <v>-2680.81</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>53646.624397</v>
       </c>
       <c r="BY22" s="1">
-        <v>14.901840</v>
+        <v>14.90184</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2848.820000</v>
+        <v>2848.82</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3633.330000</v>
+        <v>-3633.33</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>53659.655758</v>
+        <v>53659.655758000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.905460</v>
+        <v>14.90546</v>
       </c>
       <c r="CE22" s="1">
-        <v>4264.890000</v>
+        <v>4264.8900000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5906.670000</v>
+        <v>-5906.67</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>53483.700006</v>
+        <v>53483.700005999999</v>
       </c>
       <c r="B23" s="1">
-        <v>14.856583</v>
+        <v>14.856583000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1241.800000</v>
+        <v>1241.8</v>
       </c>
       <c r="D23" s="1">
-        <v>-301.736000</v>
+        <v>-301.73599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>53494.554971</v>
+        <v>53494.554970999998</v>
       </c>
       <c r="G23" s="1">
-        <v>14.859599</v>
+        <v>14.859598999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1266.410000</v>
+        <v>1266.4100000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-260.671000</v>
+        <v>-260.67099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>53504.944666</v>
+        <v>53504.944666000003</v>
       </c>
       <c r="L23" s="1">
         <v>14.862485</v>
       </c>
       <c r="M23" s="1">
-        <v>1300.850000</v>
+        <v>1300.8499999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.551000</v>
+        <v>-200.55099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>53515.508430</v>
+        <v>53515.508430000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>14.865419</v>
+        <v>14.865418999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1312.720000</v>
+        <v>1312.72</v>
       </c>
       <c r="S23" s="1">
-        <v>-182.990000</v>
+        <v>-182.99</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>53525.997823</v>
+        <v>53525.997822999998</v>
       </c>
       <c r="V23" s="1">
         <v>14.868333</v>
       </c>
       <c r="W23" s="1">
-        <v>1326.010000</v>
+        <v>1326.01</v>
       </c>
       <c r="X23" s="1">
-        <v>-169.741000</v>
+        <v>-169.74100000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>53536.883520</v>
+        <v>53536.883520000003</v>
       </c>
       <c r="AA23" s="1">
         <v>14.871357</v>
       </c>
       <c r="AB23" s="1">
-        <v>1343.300000</v>
+        <v>1343.3</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.087000</v>
+        <v>-168.08699999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>53547.335220</v>
+        <v>53547.335220000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>14.874260</v>
+        <v>14.87426</v>
       </c>
       <c r="AG23" s="1">
-        <v>1356.280000</v>
+        <v>1356.28</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.848000</v>
+        <v>-177.84800000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>53558.400002</v>
+        <v>53558.400002000002</v>
       </c>
       <c r="AK23" s="1">
         <v>14.877333</v>
       </c>
       <c r="AL23" s="1">
-        <v>1376.960000</v>
+        <v>1376.96</v>
       </c>
       <c r="AM23" s="1">
-        <v>-207.619000</v>
+        <v>-207.619</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>53569.305015</v>
+        <v>53569.305014999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.880363</v>
+        <v>14.880362999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1398.720000</v>
+        <v>1398.72</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.258000</v>
+        <v>-251.25800000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>53580.033015</v>
+        <v>53580.033015000001</v>
       </c>
       <c r="AU23" s="1">
         <v>14.883343</v>
       </c>
       <c r="AV23" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW23" s="1">
-        <v>-310.798000</v>
+        <v>-310.798</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>53590.991593</v>
+        <v>53590.991592999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>14.886387</v>
+        <v>14.886386999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1442.860000</v>
+        <v>1442.86</v>
       </c>
       <c r="BB23" s="1">
-        <v>-362.544000</v>
+        <v>-362.54399999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>53602.043483</v>
+        <v>53602.043483000001</v>
       </c>
       <c r="BE23" s="1">
         <v>14.889457</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.449000</v>
+        <v>-608.44899999999996</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>53613.801639</v>
+        <v>53613.801638999998</v>
       </c>
       <c r="BJ23" s="1">
         <v>14.892723</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.850000</v>
+        <v>1683.85</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1047.950000</v>
+        <v>-1047.95</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>53625.381248</v>
+        <v>53625.381247999998</v>
       </c>
       <c r="BO23" s="1">
         <v>14.895939</v>
       </c>
       <c r="BP23" s="1">
-        <v>1978.790000</v>
+        <v>1978.79</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1807.360000</v>
+        <v>-1807.36</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>53636.065535</v>
+        <v>53636.065535000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>14.898907</v>
+        <v>14.898906999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2363.480000</v>
+        <v>2363.48</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2680.820000</v>
+        <v>-2680.82</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>53647.049967</v>
+        <v>53647.049966999999</v>
       </c>
       <c r="BY23" s="1">
         <v>14.901958</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2848.720000</v>
+        <v>2848.72</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3633.420000</v>
+        <v>-3633.42</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>53660.174117</v>
+        <v>53660.174117000002</v>
       </c>
       <c r="CD23" s="1">
         <v>14.905604</v>
       </c>
       <c r="CE23" s="1">
-        <v>4268.440000</v>
+        <v>4268.4399999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5907.050000</v>
+        <v>-5907.05</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>53484.383015</v>
+        <v>53484.383014999999</v>
       </c>
       <c r="B24" s="1">
         <v>14.856773</v>
       </c>
       <c r="C24" s="1">
-        <v>1241.550000</v>
+        <v>1241.55</v>
       </c>
       <c r="D24" s="1">
-        <v>-302.064000</v>
+        <v>-302.06400000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>53494.833192</v>
+        <v>53494.833191999998</v>
       </c>
       <c r="G24" s="1">
         <v>14.859676</v>
       </c>
       <c r="H24" s="1">
-        <v>1265.740000</v>
+        <v>1265.74</v>
       </c>
       <c r="I24" s="1">
-        <v>-261.712000</v>
+        <v>-261.71199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>53505.290346</v>
+        <v>53505.290346000002</v>
       </c>
       <c r="L24" s="1">
         <v>14.862581</v>
       </c>
       <c r="M24" s="1">
-        <v>1300.980000</v>
+        <v>1300.98</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.345000</v>
+        <v>-200.345</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>53515.858604</v>
+        <v>53515.858604000001</v>
       </c>
       <c r="Q24" s="1">
         <v>14.865516</v>
       </c>
       <c r="R24" s="1">
-        <v>1312.810000</v>
+        <v>1312.81</v>
       </c>
       <c r="S24" s="1">
-        <v>-182.956000</v>
+        <v>-182.95599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>53526.341552</v>
+        <v>53526.341551999998</v>
       </c>
       <c r="V24" s="1">
         <v>14.868428</v>
       </c>
       <c r="W24" s="1">
-        <v>1326.030000</v>
+        <v>1326.03</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.003000</v>
+        <v>-170.00299999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>53537.580928</v>
+        <v>53537.580928000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>14.871550</v>
+        <v>14.871549999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1343.290000</v>
+        <v>1343.29</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.024000</v>
+        <v>-168.024</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>53548.019727</v>
+        <v>53548.019726999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>14.874450</v>
+        <v>14.87445</v>
       </c>
       <c r="AG24" s="1">
-        <v>1356.360000</v>
+        <v>1356.36</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.835000</v>
+        <v>-177.83500000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>53558.750643</v>
+        <v>53558.750642999999</v>
       </c>
       <c r="AK24" s="1">
         <v>14.877431</v>
       </c>
       <c r="AL24" s="1">
-        <v>1376.980000</v>
+        <v>1376.98</v>
       </c>
       <c r="AM24" s="1">
-        <v>-207.599000</v>
+        <v>-207.59899999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>53569.663622</v>
@@ -6255,649 +6671,650 @@
         <v>14.880462</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1398.730000</v>
+        <v>1398.73</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.228000</v>
+        <v>-251.22800000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>53580.396090</v>
+        <v>53580.396090000002</v>
       </c>
       <c r="AU24" s="1">
         <v>14.883443</v>
       </c>
       <c r="AV24" s="1">
-        <v>1423.420000</v>
+        <v>1423.42</v>
       </c>
       <c r="AW24" s="1">
-        <v>-310.845000</v>
+        <v>-310.84500000000003</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>53591.663176</v>
+        <v>53591.663176000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>14.886573</v>
       </c>
       <c r="BA24" s="1">
-        <v>1442.860000</v>
+        <v>1442.86</v>
       </c>
       <c r="BB24" s="1">
-        <v>-362.552000</v>
+        <v>-362.55200000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>53602.715065</v>
+        <v>53602.715064999997</v>
       </c>
       <c r="BE24" s="1">
         <v>14.889643</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.750000</v>
+        <v>1528.75</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.442000</v>
+        <v>-608.44200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>53614.241066</v>
+        <v>53614.241066000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.892845</v>
+        <v>14.892844999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.980000</v>
+        <v>1683.98</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1048.050000</v>
+        <v>-1048.05</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>53625.780026</v>
       </c>
       <c r="BO24" s="1">
-        <v>14.896050</v>
+        <v>14.896050000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1978.660000</v>
+        <v>1978.66</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1807.410000</v>
+        <v>-1807.41</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>53636.505981</v>
+        <v>53636.505981000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>14.899029</v>
+        <v>14.899029000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2363.790000</v>
+        <v>2363.79</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2680.980000</v>
+        <v>-2680.98</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>53647.493358</v>
       </c>
       <c r="BY24" s="1">
-        <v>14.902081</v>
+        <v>14.902081000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2849.260000</v>
+        <v>2849.26</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3633.120000</v>
+        <v>-3633.12</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>53660.725134</v>
       </c>
       <c r="CD24" s="1">
-        <v>14.905757</v>
+        <v>14.905756999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4267.440000</v>
+        <v>4267.4399999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5918.610000</v>
+        <v>-5918.61</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>53484.724761</v>
+        <v>53484.724760999998</v>
       </c>
       <c r="B25" s="1">
         <v>14.856868</v>
       </c>
       <c r="C25" s="1">
-        <v>1241.680000</v>
+        <v>1241.68</v>
       </c>
       <c r="D25" s="1">
-        <v>-301.666000</v>
+        <v>-301.666</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>53495.176919</v>
+        <v>53495.176918999998</v>
       </c>
       <c r="G25" s="1">
         <v>14.859771</v>
       </c>
       <c r="H25" s="1">
-        <v>1266.130000</v>
+        <v>1266.1300000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.789000</v>
+        <v>-260.78899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>53505.638570</v>
+        <v>53505.638570000003</v>
       </c>
       <c r="L25" s="1">
         <v>14.862677</v>
       </c>
       <c r="M25" s="1">
-        <v>1300.970000</v>
+        <v>1300.97</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.393000</v>
+        <v>-200.393</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>53516.206301</v>
+        <v>53516.206300999998</v>
       </c>
       <c r="Q25" s="1">
         <v>14.865613</v>
       </c>
       <c r="R25" s="1">
-        <v>1312.790000</v>
+        <v>1312.79</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.034000</v>
+        <v>-183.03399999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>53527.029036</v>
       </c>
       <c r="V25" s="1">
-        <v>14.868619</v>
+        <v>14.868619000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1326.100000</v>
+        <v>1326.1</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.889000</v>
+        <v>-169.88900000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>53537.928095</v>
+        <v>53537.928095000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>14.871647</v>
+        <v>14.871646999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1343.400000</v>
+        <v>1343.4</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.012000</v>
+        <v>-168.012</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>53548.362931</v>
+        <v>53548.362931000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.874545</v>
+        <v>14.874544999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1356.300000</v>
+        <v>1356.3</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.793000</v>
+        <v>-177.79300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>53559.097845</v>
+        <v>53559.097844999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>14.877527</v>
+        <v>14.877527000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1376.990000</v>
+        <v>1376.99</v>
       </c>
       <c r="AM25" s="1">
-        <v>-207.626000</v>
+        <v>-207.626</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>53570.024710</v>
+        <v>53570.024709999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>14.880562</v>
+        <v>14.880561999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1398.710000</v>
+        <v>1398.71</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.201000</v>
+        <v>-251.20099999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>53581.080070</v>
+        <v>53581.080070000004</v>
       </c>
       <c r="AU25" s="1">
         <v>14.883633</v>
       </c>
       <c r="AV25" s="1">
-        <v>1423.390000</v>
+        <v>1423.39</v>
       </c>
       <c r="AW25" s="1">
-        <v>-310.855000</v>
+        <v>-310.85500000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>53592.077335</v>
+        <v>53592.077335000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>14.886688</v>
+        <v>14.886687999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1442.850000</v>
+        <v>1442.85</v>
       </c>
       <c r="BB25" s="1">
-        <v>-362.542000</v>
+        <v>-362.54199999999997</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>53603.158457</v>
+        <v>53603.158456999998</v>
       </c>
       <c r="BE25" s="1">
         <v>14.889766</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.710000</v>
+        <v>1528.71</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.453000</v>
+        <v>-608.45299999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>53614.616538</v>
+        <v>53614.616538000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>14.892949</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1048.080000</v>
+        <v>-1048.08</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>53626.201626</v>
+        <v>53626.201626000002</v>
       </c>
       <c r="BO25" s="1">
         <v>14.896167</v>
       </c>
       <c r="BP25" s="1">
-        <v>1978.910000</v>
+        <v>1978.91</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1807.250000</v>
+        <v>-1807.25</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>53636.931054</v>
+        <v>53636.931054000001</v>
       </c>
       <c r="BT25" s="1">
         <v>14.899148</v>
       </c>
       <c r="BU25" s="1">
-        <v>2363.620000</v>
+        <v>2363.62</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2681.170000</v>
+        <v>-2681.17</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>53647.930866</v>
+        <v>53647.930866000002</v>
       </c>
       <c r="BY25" s="1">
         <v>14.902203</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2848.620000</v>
+        <v>2848.62</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3632.470000</v>
+        <v>-3632.47</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>53661.255357</v>
+        <v>53661.255357000002</v>
       </c>
       <c r="CD25" s="1">
         <v>14.905904</v>
       </c>
       <c r="CE25" s="1">
-        <v>4263.140000</v>
+        <v>4263.1400000000003</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5905.330000</v>
+        <v>-5905.33</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>53485.069977</v>
+        <v>53485.069976999999</v>
       </c>
       <c r="B26" s="1">
         <v>14.856964</v>
       </c>
       <c r="C26" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="D26" s="1">
-        <v>-301.839000</v>
+        <v>-301.839</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>53495.521641</v>
+        <v>53495.521640999999</v>
       </c>
       <c r="G26" s="1">
-        <v>14.859867</v>
+        <v>14.859866999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1266.080000</v>
+        <v>1266.08</v>
       </c>
       <c r="I26" s="1">
-        <v>-261.704000</v>
+        <v>-261.70400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>53506.332969</v>
+        <v>53506.332969000003</v>
       </c>
       <c r="L26" s="1">
-        <v>14.862870</v>
+        <v>14.862869999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1300.980000</v>
+        <v>1300.98</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.523000</v>
+        <v>-200.523</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>53516.904666</v>
+        <v>53516.904666000002</v>
       </c>
       <c r="Q26" s="1">
         <v>14.865807</v>
       </c>
       <c r="R26" s="1">
-        <v>1312.750000</v>
+        <v>1312.75</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.095000</v>
+        <v>-183.095</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>53527.374222</v>
+        <v>53527.374221999999</v>
       </c>
       <c r="V26" s="1">
         <v>14.868715</v>
       </c>
       <c r="W26" s="1">
-        <v>1326.050000</v>
+        <v>1326.05</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.912000</v>
+        <v>-169.91200000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>53538.280286</v>
+        <v>53538.280286000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>14.871745</v>
+        <v>14.871745000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1343.300000</v>
+        <v>1343.3</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.975000</v>
+        <v>-167.97499999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>53548.709183</v>
+        <v>53548.709182999999</v>
       </c>
       <c r="AF26" s="1">
         <v>14.874641</v>
       </c>
       <c r="AG26" s="1">
-        <v>1356.280000</v>
+        <v>1356.28</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.800000</v>
+        <v>-177.8</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>53559.753088</v>
+        <v>53559.753087999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.877709</v>
+        <v>14.877708999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1376.960000</v>
+        <v>1376.96</v>
       </c>
       <c r="AM26" s="1">
-        <v>-207.595000</v>
+        <v>-207.595</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>53570.456267</v>
+        <v>53570.456267000001</v>
       </c>
       <c r="AP26" s="1">
         <v>14.880682</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1398.730000</v>
+        <v>1398.73</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.227000</v>
+        <v>-251.227</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>53581.491719</v>
+        <v>53581.491718999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>14.883748</v>
+        <v>14.883748000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1423.400000</v>
+        <v>1423.4</v>
       </c>
       <c r="AW26" s="1">
-        <v>-310.823000</v>
+        <v>-310.82299999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>53592.454295</v>
+        <v>53592.454295000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>14.886793</v>
+        <v>14.886793000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1442.880000</v>
+        <v>1442.88</v>
       </c>
       <c r="BB26" s="1">
-        <v>-362.531000</v>
+        <v>-362.53100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>53603.517102</v>
+        <v>53603.517101999998</v>
       </c>
       <c r="BE26" s="1">
         <v>14.889866</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.730000</v>
+        <v>1528.73</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.435000</v>
+        <v>-608.43499999999995</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>53614.993002</v>
+        <v>53614.993002000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.893054</v>
+        <v>14.893053999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1684.000000</v>
+        <v>1684</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1048.020000</v>
+        <v>-1048.02</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>53626.612778</v>
+        <v>53626.612778000002</v>
       </c>
       <c r="BO26" s="1">
         <v>14.896281</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.600000</v>
+        <v>1978.6</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1807.270000</v>
+        <v>-1807.27</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>53637.356160</v>
+        <v>53637.356160000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>14.899266</v>
+        <v>14.899266000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2363.790000</v>
+        <v>2363.79</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2681.240000</v>
+        <v>-2681.24</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>53648.350990</v>
+        <v>53648.350989999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.902320</v>
+        <v>14.90232</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2848.630000</v>
+        <v>2848.63</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3632.560000</v>
+        <v>-3632.56</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>53661.772719</v>
+        <v>53661.772719000001</v>
       </c>
       <c r="CD26" s="1">
         <v>14.906048</v>
       </c>
       <c r="CE26" s="1">
-        <v>4250.130000</v>
+        <v>4250.13</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5911.620000</v>
+        <v>-5911.62</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>